--- a/code/compare.xlsx
+++ b/code/compare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tungwu/Documents/GitHub/ORA_final_project/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92A9149-AAB2-6F41-9620-4065E2128743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E0C988-E74B-E94A-8857-A8FB2A97AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="life" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="85">
   <si>
     <t>台產</t>
   </si>
@@ -297,13 +297,17 @@
   <si>
     <t>安達人壽</t>
   </si>
+  <si>
+    <t>和泰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="182" formatCode="0.000"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -513,7 +517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -562,12 +566,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -913,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6164C8D-2EDF-B247-89BA-8ED78A86A0CE}">
   <dimension ref="A1:DK244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" zoomScale="89" zoomScaleNormal="43" workbookViewId="0">
+    <sheetView topLeftCell="AN1" zoomScale="89" zoomScaleNormal="43" workbookViewId="0">
       <selection activeCell="DJ68" sqref="DJ68"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1096,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="6">
-        <f>B2/D2</f>
+        <f t="shared" ref="F2:F23" si="0">B2/D2</f>
         <v>1</v>
       </c>
       <c r="G2" s="17">
@@ -1107,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="6">
-        <f>H2/J2</f>
+        <f t="shared" ref="L2:L23" si="1">H2/J2</f>
         <v>1</v>
       </c>
       <c r="M2" s="17">
@@ -1126,7 +1134,7 @@
         <v>14</v>
       </c>
       <c r="R2" s="6">
-        <f>N2/P2</f>
+        <f t="shared" ref="R2:R23" si="2">N2/P2</f>
         <v>1</v>
       </c>
       <c r="S2" s="17">
@@ -1145,7 +1153,7 @@
         <v>18</v>
       </c>
       <c r="X2" s="6">
-        <f>T2/V2</f>
+        <f t="shared" ref="X2:X23" si="3">T2/V2</f>
         <v>1</v>
       </c>
       <c r="Y2" s="17">
@@ -1164,7 +1172,7 @@
         <v>6</v>
       </c>
       <c r="AD2" s="6">
-        <f>Z2/AB2</f>
+        <f t="shared" ref="AD2:AD23" si="4">Z2/AB2</f>
         <v>1</v>
       </c>
       <c r="AE2" s="17">
@@ -1183,7 +1191,7 @@
         <v>8</v>
       </c>
       <c r="AJ2" s="6">
-        <f>AF2/AH2</f>
+        <f t="shared" ref="AJ2:AJ23" si="5">AF2/AH2</f>
         <v>1</v>
       </c>
       <c r="AK2" s="17">
@@ -1202,7 +1210,7 @@
         <v>18</v>
       </c>
       <c r="AP2" s="13">
-        <f>AL2/AN2</f>
+        <f t="shared" ref="AP2:AP23" si="6">AL2/AN2</f>
         <v>1</v>
       </c>
       <c r="AQ2" s="17">
@@ -1218,87 +1226,87 @@
         <v>0</v>
       </c>
       <c r="AU2" s="17">
-        <f>RANK(B2, B$2:B$23)</f>
+        <f t="shared" ref="AU2:AU23" si="7">RANK(B2, B$2:B$23)</f>
         <v>6</v>
       </c>
       <c r="AV2" s="17">
-        <f>RANK(D2, D$2:D$23)</f>
+        <f t="shared" ref="AV2:AV23" si="8">RANK(D2, D$2:D$23)</f>
         <v>10</v>
       </c>
       <c r="AW2" s="17">
-        <f>RANK(F2, F$2:F$23)</f>
+        <f t="shared" ref="AW2:AW23" si="9">RANK(F2, F$2:F$23)</f>
         <v>1</v>
       </c>
       <c r="AX2" s="17">
-        <f>RANK(H2, H$2:H$23)</f>
+        <f t="shared" ref="AX2:AX23" si="10">RANK(H2, H$2:H$23)</f>
         <v>2</v>
       </c>
       <c r="AY2" s="17">
-        <f>RANK(J2, J$2:J$23)</f>
+        <f t="shared" ref="AY2:AY23" si="11">RANK(J2, J$2:J$23)</f>
         <v>5</v>
       </c>
       <c r="AZ2" s="17">
-        <f>RANK(L2, L$2:L$23)</f>
+        <f t="shared" ref="AZ2:AZ23" si="12">RANK(L2, L$2:L$23)</f>
         <v>5</v>
       </c>
       <c r="BA2" s="17">
-        <f>RANK(N2, N$2:N$23)</f>
+        <f t="shared" ref="BA2:BA23" si="13">RANK(N2, N$2:N$23)</f>
         <v>12</v>
       </c>
       <c r="BB2" s="17">
-        <f>RANK(P2, P$2:P$23)</f>
+        <f t="shared" ref="BB2:BB23" si="14">RANK(P2, P$2:P$23)</f>
         <v>14</v>
       </c>
       <c r="BC2" s="17">
-        <f>RANK(R2, R$2:R$23)</f>
+        <f t="shared" ref="BC2:BC23" si="15">RANK(R2, R$2:R$23)</f>
         <v>10</v>
       </c>
       <c r="BD2" s="17">
-        <f>RANK(T2, T$2:T$23)</f>
+        <f t="shared" ref="BD2:BD23" si="16">RANK(T2, T$2:T$23)</f>
         <v>17</v>
       </c>
       <c r="BE2" s="17">
-        <f>RANK(V2, V$2:V$23)</f>
+        <f t="shared" ref="BE2:BE23" si="17">RANK(V2, V$2:V$23)</f>
         <v>18</v>
       </c>
       <c r="BF2" s="17">
-        <f>RANK(X2, X$2:X$23)</f>
+        <f t="shared" ref="BF2:BF23" si="18">RANK(X2, X$2:X$23)</f>
         <v>7</v>
       </c>
       <c r="BG2" s="17">
-        <f>RANK(Z2, Z$2:Z$23)</f>
+        <f t="shared" ref="BG2:BG23" si="19">RANK(Z2, Z$2:Z$23)</f>
         <v>2</v>
       </c>
       <c r="BH2" s="17">
-        <f>RANK(AB2, AB$2:AB$23)</f>
+        <f t="shared" ref="BH2:BH23" si="20">RANK(AB2, AB$2:AB$23)</f>
         <v>6</v>
       </c>
       <c r="BI2" s="17">
-        <f>RANK(AD2, AD$2:AD$23)</f>
+        <f t="shared" ref="BI2:BI23" si="21">RANK(AD2, AD$2:AD$23)</f>
         <v>5</v>
       </c>
       <c r="BJ2" s="17">
-        <f>RANK(AF2, AF$2:AF$23)</f>
+        <f t="shared" ref="BJ2:BJ23" si="22">RANK(AF2, AF$2:AF$23)</f>
         <v>5</v>
       </c>
       <c r="BK2" s="17">
-        <f>RANK(AH2, AH$2:AH$23)</f>
+        <f t="shared" ref="BK2:BK23" si="23">RANK(AH2, AH$2:AH$23)</f>
         <v>8</v>
       </c>
       <c r="BL2" s="17">
-        <f>RANK(AJ2, AJ$2:AJ$23)</f>
+        <f t="shared" ref="BL2:BL23" si="24">RANK(AJ2, AJ$2:AJ$23)</f>
         <v>7</v>
       </c>
       <c r="BM2" s="17">
-        <f>RANK(AL2, AL$2:AL$23)</f>
+        <f t="shared" ref="BM2:BM15" si="25">RANK(AL2, AL$2:AL$23)</f>
         <v>17</v>
       </c>
       <c r="BN2" s="17">
-        <f>RANK(AN2, AN$2:AN$23)</f>
+        <f t="shared" ref="BN2:BN15" si="26">RANK(AN2, AN$2:AN$23)</f>
         <v>18</v>
       </c>
       <c r="BO2" s="17">
-        <f>RANK(AP2, AP$2:AP$23)</f>
+        <f t="shared" ref="BO2:BO15" si="27">RANK(AP2, AP$2:AP$23)</f>
         <v>7</v>
       </c>
     </row>
@@ -1319,7 +1327,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="6">
-        <f>B3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.94744183370712753</v>
       </c>
       <c r="G3" s="17">
@@ -1338,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="L3" s="6">
-        <f>H3/J3</f>
+        <f t="shared" si="1"/>
         <v>0.89577987977268569</v>
       </c>
       <c r="M3" s="17">
@@ -1357,7 +1365,7 @@
         <v>11</v>
       </c>
       <c r="R3" s="6">
-        <f>N3/P3</f>
+        <f t="shared" si="2"/>
         <v>1.0578138582211762</v>
       </c>
       <c r="S3" s="17">
@@ -1376,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="X3" s="6">
-        <f>T3/V3</f>
+        <f t="shared" si="3"/>
         <v>0.99465297365434135</v>
       </c>
       <c r="Y3" s="17">
@@ -1395,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="AD3" s="6">
-        <f>Z3/AB3</f>
+        <f t="shared" si="4"/>
         <v>0.94539623204908785</v>
       </c>
       <c r="AE3" s="17">
@@ -1414,7 +1422,7 @@
         <v>11</v>
       </c>
       <c r="AJ3" s="6">
-        <f>AF3/AH3</f>
+        <f t="shared" si="5"/>
         <v>1.0075511531538548</v>
       </c>
       <c r="AK3" s="17">
@@ -1433,7 +1441,7 @@
         <v>11</v>
       </c>
       <c r="AP3" s="13">
-        <f>AL3/AN3</f>
+        <f t="shared" si="6"/>
         <v>0.99465297365434135</v>
       </c>
       <c r="AQ3" s="17">
@@ -1449,87 +1457,87 @@
         <v>0.87538125236582542</v>
       </c>
       <c r="AU3" s="17">
-        <f>RANK(B3, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="AV3" s="17">
-        <f>RANK(D3, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="AW3" s="17">
-        <f>RANK(F3, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="AX3" s="17">
-        <f>RANK(H3, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="AY3" s="17">
-        <f>RANK(J3, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="AZ3" s="17">
-        <f>RANK(L3, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
       <c r="BA3" s="17">
-        <f>RANK(N3, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="BB3" s="17">
-        <f>RANK(P3, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>11</v>
       </c>
       <c r="BC3" s="17">
-        <f>RANK(R3, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="BD3" s="17">
-        <f>RANK(T3, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="BE3" s="17">
-        <f>RANK(V3, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>11</v>
       </c>
       <c r="BF3" s="17">
-        <f>RANK(X3, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="BG3" s="17">
-        <f>RANK(Z3, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>5</v>
       </c>
       <c r="BH3" s="17">
-        <f>RANK(AB3, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="BI3" s="17">
-        <f>RANK(AD3, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="BJ3" s="17">
-        <f>RANK(AF3, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="BK3" s="17">
-        <f>RANK(AH3, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="BL3" s="17">
-        <f>RANK(AJ3, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="BM3" s="17">
-        <f>RANK(AL3, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="BN3" s="17">
-        <f>RANK(AN3, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="BO3" s="17">
-        <f>RANK(AP3, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
     </row>
@@ -1550,7 +1558,7 @@
         <v>19</v>
       </c>
       <c r="F4" s="6">
-        <f>B4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.89079154781499792</v>
       </c>
       <c r="G4" s="17">
@@ -1569,7 +1577,7 @@
         <v>18</v>
       </c>
       <c r="L4" s="6">
-        <f>H4/J4</f>
+        <f t="shared" si="1"/>
         <v>0.71304584010362726</v>
       </c>
       <c r="M4" s="17">
@@ -1588,7 +1596,7 @@
         <v>8</v>
       </c>
       <c r="R4" s="6">
-        <f>N4/P4</f>
+        <f t="shared" si="2"/>
         <v>-1.8517068705585036E-3</v>
       </c>
       <c r="S4" s="17">
@@ -1607,7 +1615,7 @@
         <v>12</v>
       </c>
       <c r="X4" s="6">
-        <f>T4/V4</f>
+        <f t="shared" si="3"/>
         <v>1.3083580415961855</v>
       </c>
       <c r="Y4" s="17">
@@ -1626,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="AD4" s="6">
-        <f>Z4/AB4</f>
+        <f t="shared" si="4"/>
         <v>0.97270354448833696</v>
       </c>
       <c r="AE4" s="17">
@@ -1645,7 +1653,7 @@
         <v>19</v>
       </c>
       <c r="AJ4" s="6">
-        <f>AF4/AH4</f>
+        <f t="shared" si="5"/>
         <v>0.69995316417971298</v>
       </c>
       <c r="AK4" s="17">
@@ -1664,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="AP4" s="13">
-        <f>AL4/AN4</f>
+        <f t="shared" si="6"/>
         <v>1.3083580415961855</v>
       </c>
       <c r="AQ4" s="17">
@@ -1680,87 +1688,87 @@
         <v>1.926129761037902</v>
       </c>
       <c r="AU4" s="17">
-        <f>RANK(B4, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="AV4" s="17">
-        <f>RANK(D4, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="AW4" s="17">
-        <f>RANK(F4, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="AX4" s="17">
-        <f>RANK(H4, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="AY4" s="17">
-        <f>RANK(J4, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="AZ4" s="17">
-        <f>RANK(L4, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>16</v>
       </c>
       <c r="BA4" s="17">
-        <f>RANK(N4, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="BB4" s="17">
-        <f>RANK(P4, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="BC4" s="17">
-        <f>RANK(R4, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>21</v>
       </c>
       <c r="BD4" s="17">
-        <f>RANK(T4, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="BE4" s="17">
-        <f>RANK(V4, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="BF4" s="17">
-        <f>RANK(X4, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="BG4" s="17">
-        <f>RANK(Z4, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>17</v>
       </c>
       <c r="BH4" s="17">
-        <f>RANK(AB4, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="BI4" s="17">
-        <f>RANK(AD4, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="BJ4" s="17">
-        <f>RANK(AF4, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="BK4" s="17">
-        <f>RANK(AH4, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>19</v>
       </c>
       <c r="BL4" s="17">
-        <f>RANK(AJ4, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>20</v>
       </c>
       <c r="BM4" s="17">
-        <f>RANK(AL4, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="BN4" s="17">
-        <f>RANK(AN4, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>12</v>
       </c>
       <c r="BO4" s="17">
-        <f>RANK(AP4, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>2</v>
       </c>
     </row>
@@ -1781,7 +1789,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="6">
-        <f>B5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.16350737647952129</v>
       </c>
       <c r="G5" s="17">
@@ -1800,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="6">
-        <f>H5/J5</f>
+        <f t="shared" si="1"/>
         <v>0.4191267237389546</v>
       </c>
       <c r="M5" s="17">
@@ -1819,7 +1827,7 @@
         <v>1</v>
       </c>
       <c r="R5" s="6">
-        <f>N5/P5</f>
+        <f t="shared" si="2"/>
         <v>2.3083704587089846E-2</v>
       </c>
       <c r="S5" s="17">
@@ -1838,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="X5" s="6">
-        <f>T5/V5</f>
+        <f t="shared" si="3"/>
         <v>0.67497668665970423</v>
       </c>
       <c r="Y5" s="17">
@@ -1857,7 +1865,7 @@
         <v>1</v>
       </c>
       <c r="AD5" s="6">
-        <f>Z5/AB5</f>
+        <f t="shared" si="4"/>
         <v>0.70396253460299685</v>
       </c>
       <c r="AE5" s="17">
@@ -1876,7 +1884,7 @@
         <v>1</v>
       </c>
       <c r="AJ5" s="6">
-        <f>AF5/AH5</f>
+        <f t="shared" si="5"/>
         <v>0.34411137672610609</v>
       </c>
       <c r="AK5" s="17">
@@ -1895,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="AP5" s="13">
-        <f>AL5/AN5</f>
+        <f t="shared" si="6"/>
         <v>0.67497668665970423</v>
       </c>
       <c r="AQ5" s="17">
@@ -1911,87 +1919,87 @@
         <v>9.1948569970081948</v>
       </c>
       <c r="AU5" s="17">
-        <f>RANK(B5, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="AV5" s="17">
-        <f>RANK(D5, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AW5" s="17">
-        <f>RANK(F5, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="AX5" s="17">
-        <f>RANK(H5, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="AY5" s="17">
-        <f>RANK(J5, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="AZ5" s="17">
-        <f>RANK(L5, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>18</v>
       </c>
       <c r="BA5" s="17">
-        <f>RANK(N5, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="BB5" s="17">
-        <f>RANK(P5, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="BC5" s="17">
-        <f>RANK(R5, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="BD5" s="17">
-        <f>RANK(T5, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="BE5" s="17">
-        <f>RANK(V5, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>4</v>
       </c>
       <c r="BF5" s="17">
-        <f>RANK(X5, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="BG5" s="17">
-        <f>RANK(Z5, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>12</v>
       </c>
       <c r="BH5" s="17">
-        <f>RANK(AB5, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="BI5" s="17">
-        <f>RANK(AD5, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>20</v>
       </c>
       <c r="BJ5" s="17">
-        <f>RANK(AF5, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>16</v>
       </c>
       <c r="BK5" s="17">
-        <f>RANK(AH5, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="BL5" s="17">
-        <f>RANK(AJ5, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="BM5" s="17">
-        <f>RANK(AL5, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="BN5" s="17">
-        <f>RANK(AN5, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>4</v>
       </c>
       <c r="BO5" s="17">
-        <f>RANK(AP5, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>20</v>
       </c>
     </row>
@@ -2012,7 +2020,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6">
-        <f>B6/D6</f>
+        <f t="shared" si="0"/>
         <v>0.91281791606091256</v>
       </c>
       <c r="G6" s="17">
@@ -2031,7 +2039,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="6">
-        <f>H6/J6</f>
+        <f t="shared" si="1"/>
         <v>0.88649848979240353</v>
       </c>
       <c r="M6" s="17">
@@ -2050,7 +2058,7 @@
         <v>13</v>
       </c>
       <c r="R6" s="6">
-        <f>N6/P6</f>
+        <f t="shared" si="2"/>
         <v>1.0562865576867504</v>
       </c>
       <c r="S6" s="17">
@@ -2069,7 +2077,7 @@
         <v>16</v>
       </c>
       <c r="X6" s="6">
-        <f>T6/V6</f>
+        <f t="shared" si="3"/>
         <v>0.97017270425320534</v>
       </c>
       <c r="Y6" s="17">
@@ -2088,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="AD6" s="6">
-        <f>Z6/AB6</f>
+        <f t="shared" si="4"/>
         <v>0.93893390754514194</v>
       </c>
       <c r="AE6" s="17">
@@ -2107,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AJ6" s="6">
-        <f>AF6/AH6</f>
+        <f t="shared" si="5"/>
         <v>1.0020746620620054</v>
       </c>
       <c r="AK6" s="17">
@@ -2126,7 +2134,7 @@
         <v>16</v>
       </c>
       <c r="AP6" s="13">
-        <f>AL6/AN6</f>
+        <f t="shared" si="6"/>
         <v>0.97017270425320534</v>
       </c>
       <c r="AQ6" s="17">
@@ -2142,87 +2150,87 @@
         <v>3.4973238067197632</v>
       </c>
       <c r="AU6" s="17">
-        <f>RANK(B6, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="AV6" s="17">
-        <f>RANK(D6, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="AW6" s="17">
-        <f>RANK(F6, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="AX6" s="17">
-        <f>RANK(H6, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="AY6" s="17">
-        <f>RANK(J6, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AZ6" s="17">
-        <f>RANK(L6, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="BA6" s="17">
-        <f>RANK(N6, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
       <c r="BB6" s="17">
-        <f>RANK(P6, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>13</v>
       </c>
       <c r="BC6" s="17">
-        <f>RANK(R6, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="BD6" s="17">
-        <f>RANK(T6, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>15</v>
       </c>
       <c r="BE6" s="17">
-        <f>RANK(V6, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>16</v>
       </c>
       <c r="BF6" s="17">
-        <f>RANK(X6, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
       <c r="BG6" s="17">
-        <f>RANK(Z6, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>4</v>
       </c>
       <c r="BH6" s="17">
-        <f>RANK(AB6, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="BI6" s="17">
-        <f>RANK(AD6, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="BJ6" s="17">
-        <f>RANK(AF6, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="BK6" s="17">
-        <f>RANK(AH6, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>9</v>
       </c>
       <c r="BL6" s="17">
-        <f>RANK(AJ6, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="BM6" s="17">
-        <f>RANK(AL6, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="BN6" s="17">
-        <f>RANK(AN6, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>16</v>
       </c>
       <c r="BO6" s="17">
-        <f>RANK(AP6, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
     </row>
@@ -2243,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="6">
-        <f>B7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.38386436579824201</v>
       </c>
       <c r="G7" s="17">
@@ -2262,7 +2270,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="6">
-        <f>H7/J7</f>
+        <f t="shared" si="1"/>
         <v>0.36883959067289823</v>
       </c>
       <c r="M7" s="17">
@@ -2281,7 +2289,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="6">
-        <f>N7/P7</f>
+        <f t="shared" si="2"/>
         <v>9.6651591408527283E-3</v>
       </c>
       <c r="S7" s="17">
@@ -2300,7 +2308,7 @@
         <v>1</v>
       </c>
       <c r="X7" s="6">
-        <f>T7/V7</f>
+        <f t="shared" si="3"/>
         <v>0.87432651998378508</v>
       </c>
       <c r="Y7" s="17">
@@ -2319,7 +2327,7 @@
         <v>9</v>
       </c>
       <c r="AD7" s="6">
-        <f>Z7/AB7</f>
+        <f t="shared" si="4"/>
         <v>0.76718266040393601</v>
       </c>
       <c r="AE7" s="17">
@@ -2338,7 +2346,7 @@
         <v>7</v>
       </c>
       <c r="AJ7" s="6">
-        <f>AF7/AH7</f>
+        <f t="shared" si="5"/>
         <v>0.57227578304109017</v>
       </c>
       <c r="AK7" s="17">
@@ -2357,7 +2365,7 @@
         <v>1</v>
       </c>
       <c r="AP7" s="13">
-        <f>AL7/AN7</f>
+        <f t="shared" si="6"/>
         <v>0.87432651998378508</v>
       </c>
       <c r="AQ7" s="17">
@@ -2373,87 +2381,87 @@
         <v>0</v>
       </c>
       <c r="AU7" s="17">
-        <f>RANK(B7, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="AV7" s="17">
-        <f>RANK(D7, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="AW7" s="17">
-        <f>RANK(F7, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="AX7" s="17">
-        <f>RANK(H7, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="AY7" s="17">
-        <f>RANK(J7, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="AZ7" s="17">
-        <f>RANK(L7, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>19</v>
       </c>
       <c r="BA7" s="17">
-        <f>RANK(N7, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="BB7" s="17">
-        <f>RANK(P7, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BC7" s="17">
-        <f>RANK(R7, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
       <c r="BD7" s="17">
-        <f>RANK(T7, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="BE7" s="17">
-        <f>RANK(V7, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BF7" s="17">
-        <f>RANK(X7, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>15</v>
       </c>
       <c r="BG7" s="17">
-        <f>RANK(Z7, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>15</v>
       </c>
       <c r="BH7" s="17">
-        <f>RANK(AB7, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="BI7" s="17">
-        <f>RANK(AD7, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="BJ7" s="17">
-        <f>RANK(AF7, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>17</v>
       </c>
       <c r="BK7" s="17">
-        <f>RANK(AH7, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>7</v>
       </c>
       <c r="BL7" s="17">
-        <f>RANK(AJ7, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="BM7" s="17">
-        <f>RANK(AL7, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="BN7" s="17">
-        <f>RANK(AN7, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="BO7" s="17">
-        <f>RANK(AP7, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
     </row>
@@ -2474,7 +2482,7 @@
         <v>13</v>
       </c>
       <c r="F8" s="6">
-        <f>B8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.9516414326624647</v>
       </c>
       <c r="G8" s="17">
@@ -2493,7 +2501,7 @@
         <v>13</v>
       </c>
       <c r="L8" s="6">
-        <f>H8/J8</f>
+        <f t="shared" si="1"/>
         <v>0.86600680512286055</v>
       </c>
       <c r="M8" s="17">
@@ -2512,7 +2520,7 @@
         <v>17</v>
       </c>
       <c r="R8" s="6">
-        <f>N8/P8</f>
+        <f t="shared" si="2"/>
         <v>1.2029804278057215</v>
       </c>
       <c r="S8" s="17">
@@ -2531,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="X8" s="6">
-        <f>T8/V8</f>
+        <f t="shared" si="3"/>
         <v>1.047420692006201</v>
       </c>
       <c r="Y8" s="17">
@@ -2550,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="AD8" s="6">
-        <f>Z8/AB8</f>
+        <f t="shared" si="4"/>
         <v>0.95740467681991048</v>
       </c>
       <c r="AE8" s="17">
@@ -2569,7 +2577,7 @@
         <v>18</v>
       </c>
       <c r="AJ8" s="6">
-        <f>AF8/AH8</f>
+        <f t="shared" si="5"/>
         <v>0.94897910109437411</v>
       </c>
       <c r="AK8" s="17">
@@ -2588,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="AP8" s="13">
-        <f>AL8/AN8</f>
+        <f t="shared" si="6"/>
         <v>1.047420692006201</v>
       </c>
       <c r="AQ8" s="17">
@@ -2604,87 +2612,87 @@
         <v>2.042515064873408E-2</v>
       </c>
       <c r="AU8" s="17">
-        <f>RANK(B8, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="AV8" s="17">
-        <f>RANK(D8, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="AW8" s="17">
-        <f>RANK(F8, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="AX8" s="17">
-        <f>RANK(H8, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="AY8" s="17">
-        <f>RANK(J8, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="AZ8" s="17">
-        <f>RANK(L8, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>15</v>
       </c>
       <c r="BA8" s="17">
-        <f>RANK(N8, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="BB8" s="17">
-        <f>RANK(P8, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>17</v>
       </c>
       <c r="BC8" s="17">
-        <f>RANK(R8, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="BD8" s="17">
-        <f>RANK(T8, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="BE8" s="17">
-        <f>RANK(V8, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>9</v>
       </c>
       <c r="BF8" s="17">
-        <f>RANK(X8, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="BG8" s="17">
-        <f>RANK(Z8, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="BH8" s="17">
-        <f>RANK(AB8, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="BI8" s="17">
-        <f>RANK(AD8, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="BJ8" s="17">
-        <f>RANK(AF8, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="BK8" s="17">
-        <f>RANK(AH8, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="BL8" s="17">
-        <f>RANK(AJ8, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>16</v>
       </c>
       <c r="BM8" s="17">
-        <f>RANK(AL8, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="BN8" s="17">
-        <f>RANK(AN8, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="BO8" s="17">
-        <f>RANK(AP8, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>3</v>
       </c>
     </row>
@@ -2705,7 +2713,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="6">
-        <f>B9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.92855285660430043</v>
       </c>
       <c r="G9" s="17">
@@ -2724,7 +2732,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="6">
-        <f>H9/J9</f>
+        <f t="shared" si="1"/>
         <v>0.59698583992014331</v>
       </c>
       <c r="M9" s="17">
@@ -2743,7 +2751,7 @@
         <v>22</v>
       </c>
       <c r="R9" s="6">
-        <f>N9/P9</f>
+        <f t="shared" si="2"/>
         <v>-0.10153660353115848</v>
       </c>
       <c r="S9" s="17">
@@ -2762,7 +2770,7 @@
         <v>20</v>
       </c>
       <c r="X9" s="6">
-        <f>T9/V9</f>
+        <f t="shared" si="3"/>
         <v>1.5321886116641821</v>
       </c>
       <c r="Y9" s="17">
@@ -2781,7 +2789,7 @@
         <v>1</v>
       </c>
       <c r="AD9" s="6">
-        <f>Z9/AB9</f>
+        <f t="shared" si="4"/>
         <v>0.7881873080134103</v>
       </c>
       <c r="AE9" s="17">
@@ -2800,7 +2808,7 @@
         <v>6</v>
       </c>
       <c r="AJ9" s="6">
-        <f>AF9/AH9</f>
+        <f t="shared" si="5"/>
         <v>0.76889132874261146</v>
       </c>
       <c r="AK9" s="17">
@@ -2819,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="AP9" s="13">
-        <f>AL9/AN9</f>
+        <f t="shared" si="6"/>
         <v>1.5321886116641821</v>
       </c>
       <c r="AQ9" s="17">
@@ -2835,87 +2843,87 @@
         <v>0</v>
       </c>
       <c r="AU9" s="17">
-        <f>RANK(B9, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="AV9" s="17">
-        <f>RANK(D9, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="AW9" s="17">
-        <f>RANK(F9, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="AX9" s="17">
-        <f>RANK(H9, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="AY9" s="17">
-        <f>RANK(J9, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AZ9" s="17">
-        <f>RANK(L9, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>17</v>
       </c>
       <c r="BA9" s="17">
-        <f>RANK(N9, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="BB9" s="17">
-        <f>RANK(P9, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>22</v>
       </c>
       <c r="BC9" s="17">
-        <f>RANK(R9, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>22</v>
       </c>
       <c r="BD9" s="17">
-        <f>RANK(T9, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="BE9" s="17">
-        <f>RANK(V9, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>20</v>
       </c>
       <c r="BF9" s="17">
-        <f>RANK(X9, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="BG9" s="17">
-        <f>RANK(Z9, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="BH9" s="17">
-        <f>RANK(AB9, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="BI9" s="17">
-        <f>RANK(AD9, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="BJ9" s="17">
-        <f>RANK(AF9, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="BK9" s="17">
-        <f>RANK(AH9, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>6</v>
       </c>
       <c r="BL9" s="17">
-        <f>RANK(AJ9, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>19</v>
       </c>
       <c r="BM9" s="17">
-        <f>RANK(AL9, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="BN9" s="17">
-        <f>RANK(AN9, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="BO9" s="17">
-        <f>RANK(AP9, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
     </row>
@@ -2936,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="6">
-        <f>B10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.99102220257140794</v>
       </c>
       <c r="G10" s="17">
@@ -2955,7 +2963,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="6">
-        <f>H10/J10</f>
+        <f t="shared" si="1"/>
         <v>0.91003882980199047</v>
       </c>
       <c r="M10" s="17">
@@ -2974,7 +2982,7 @@
         <v>12</v>
       </c>
       <c r="R10" s="6">
-        <f>N10/P10</f>
+        <f t="shared" si="2"/>
         <v>1.0573630622886918</v>
       </c>
       <c r="S10" s="17">
@@ -2993,7 +3001,7 @@
         <v>13</v>
       </c>
       <c r="X10" s="6">
-        <f>T10/V10</f>
+        <f t="shared" si="3"/>
         <v>1.0156852926343867</v>
       </c>
       <c r="Y10" s="17">
@@ -3012,7 +3020,7 @@
         <v>12</v>
       </c>
       <c r="AD10" s="6">
-        <f>Z10/AB10</f>
+        <f t="shared" si="4"/>
         <v>0.95371624975044889</v>
       </c>
       <c r="AE10" s="17">
@@ -3031,7 +3039,7 @@
         <v>15</v>
       </c>
       <c r="AJ10" s="6">
-        <f>AF10/AH10</f>
+        <f t="shared" si="5"/>
         <v>1.0230692660026144</v>
       </c>
       <c r="AK10" s="17">
@@ -3050,7 +3058,7 @@
         <v>13</v>
       </c>
       <c r="AP10" s="13">
-        <f>AL10/AN10</f>
+        <f t="shared" si="6"/>
         <v>1.0156852926343867</v>
       </c>
       <c r="AQ10" s="17">
@@ -3066,87 +3074,87 @@
         <v>0</v>
       </c>
       <c r="AU10" s="17">
-        <f>RANK(B10, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>7</v>
       </c>
       <c r="AV10" s="17">
-        <f>RANK(D10, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="AW10" s="17">
-        <f>RANK(F10, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="AX10" s="17">
-        <f>RANK(H10, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="AY10" s="17">
-        <f>RANK(J10, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
       <c r="AZ10" s="17">
-        <f>RANK(L10, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
       <c r="BA10" s="17">
-        <f>RANK(N10, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="BB10" s="17">
-        <f>RANK(P10, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
       <c r="BC10" s="17">
-        <f>RANK(R10, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>4</v>
       </c>
       <c r="BD10" s="17">
-        <f>RANK(T10, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="BE10" s="17">
-        <f>RANK(V10, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>13</v>
       </c>
       <c r="BF10" s="17">
-        <f>RANK(X10, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
       <c r="BG10" s="17">
-        <f>RANK(Z10, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>9</v>
       </c>
       <c r="BH10" s="17">
-        <f>RANK(AB10, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="BI10" s="17">
-        <f>RANK(AD10, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="BJ10" s="17">
-        <f>RANK(AF10, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>12</v>
       </c>
       <c r="BK10" s="17">
-        <f>RANK(AH10, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>15</v>
       </c>
       <c r="BL10" s="17">
-        <f>RANK(AJ10, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="BM10" s="17">
-        <f>RANK(AL10, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="BN10" s="17">
-        <f>RANK(AN10, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="BO10" s="17">
-        <f>RANK(AP10, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
@@ -3167,7 +3175,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="6">
-        <f>B11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.86266551128614932</v>
       </c>
       <c r="G11" s="17">
@@ -3186,7 +3194,7 @@
         <v>7</v>
       </c>
       <c r="L11" s="6">
-        <f>H11/J11</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="M11" s="17">
@@ -3205,7 +3213,7 @@
         <v>19</v>
       </c>
       <c r="R11" s="6">
-        <f>N11/P11</f>
+        <f t="shared" si="2"/>
         <v>0.999999999999999</v>
       </c>
       <c r="S11" s="17">
@@ -3224,7 +3232,7 @@
         <v>17</v>
       </c>
       <c r="X11" s="6">
-        <f>T11/V11</f>
+        <f t="shared" si="3"/>
         <v>0.86266551128614943</v>
       </c>
       <c r="Y11" s="17">
@@ -3243,7 +3251,7 @@
         <v>7</v>
       </c>
       <c r="AD11" s="6">
-        <f>Z11/AB11</f>
+        <f t="shared" si="4"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AE11" s="17">
@@ -3262,7 +3270,7 @@
         <v>16</v>
       </c>
       <c r="AJ11" s="6">
-        <f>AF11/AH11</f>
+        <f t="shared" si="5"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="AK11" s="17">
@@ -3281,7 +3289,7 @@
         <v>17</v>
       </c>
       <c r="AP11" s="13">
-        <f>AL11/AN11</f>
+        <f t="shared" si="6"/>
         <v>0.86266551128614943</v>
       </c>
       <c r="AQ11" s="17">
@@ -3297,87 +3305,87 @@
         <v>2.3537920773946288</v>
       </c>
       <c r="AU11" s="17">
-        <f>RANK(B11, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="AV11" s="17">
-        <f>RANK(D11, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>14</v>
       </c>
       <c r="AW11" s="17">
-        <f>RANK(F11, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AX11" s="17">
-        <f>RANK(H11, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="AY11" s="17">
-        <f>RANK(J11, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AZ11" s="17">
-        <f>RANK(L11, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="BA11" s="17">
-        <f>RANK(N11, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="BB11" s="17">
-        <f>RANK(P11, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>19</v>
       </c>
       <c r="BC11" s="17">
-        <f>RANK(R11, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="BD11" s="17">
-        <f>RANK(T11, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="BE11" s="17">
-        <f>RANK(V11, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>17</v>
       </c>
       <c r="BF11" s="17">
-        <f>RANK(X11, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>17</v>
       </c>
       <c r="BG11" s="17">
-        <f>RANK(Z11, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="BH11" s="17">
-        <f>RANK(AB11, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="BI11" s="17">
-        <f>RANK(AD11, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>4</v>
       </c>
       <c r="BJ11" s="17">
-        <f>RANK(AF11, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="BK11" s="17">
-        <f>RANK(AH11, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="BL11" s="17">
-        <f>RANK(AJ11, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>13</v>
       </c>
       <c r="BM11" s="17">
-        <f>RANK(AL11, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="BN11" s="17">
-        <f>RANK(AN11, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>17</v>
       </c>
       <c r="BO11" s="17">
-        <f>RANK(AP11, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
     </row>
@@ -3398,7 +3406,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="6">
-        <f>B12/D12</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G12" s="17">
@@ -3417,7 +3425,7 @@
         <v>10</v>
       </c>
       <c r="L12" s="6">
-        <f>H12/J12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M12" s="17">
@@ -3436,7 +3444,7 @@
         <v>21</v>
       </c>
       <c r="R12" s="6">
-        <f>N12/P12</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S12" s="17">
@@ -3455,7 +3463,7 @@
         <v>1</v>
       </c>
       <c r="X12" s="6">
-        <f>T12/V12</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y12" s="17">
@@ -3474,7 +3482,7 @@
         <v>10</v>
       </c>
       <c r="AD12" s="6">
-        <f>Z12/AB12</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE12" s="17">
@@ -3493,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="AJ12" s="6">
-        <f>AF12/AH12</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AK12" s="17">
@@ -3512,7 +3520,7 @@
         <v>1</v>
       </c>
       <c r="AP12" s="13">
-        <f>AL12/AN12</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AQ12" s="17">
@@ -3528,87 +3536,87 @@
         <v>0</v>
       </c>
       <c r="AU12" s="17">
-        <f>RANK(B12, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AV12" s="17">
-        <f>RANK(D12, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AW12" s="17">
-        <f>RANK(F12, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AX12" s="17">
-        <f>RANK(H12, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="AY12" s="17">
-        <f>RANK(J12, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="AZ12" s="17">
-        <f>RANK(L12, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="BA12" s="17">
-        <f>RANK(N12, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>21</v>
       </c>
       <c r="BB12" s="17">
-        <f>RANK(P12, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>21</v>
       </c>
       <c r="BC12" s="17">
-        <f>RANK(R12, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="BD12" s="17">
-        <f>RANK(T12, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="BE12" s="17">
-        <f>RANK(V12, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BF12" s="17">
-        <f>RANK(X12, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="BG12" s="17">
-        <f>RANK(Z12, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>6</v>
       </c>
       <c r="BH12" s="17">
-        <f>RANK(AB12, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="BI12" s="17">
-        <f>RANK(AD12, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="BJ12" s="17">
-        <f>RANK(AF12, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="BK12" s="17">
-        <f>RANK(AH12, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>12</v>
       </c>
       <c r="BL12" s="17">
-        <f>RANK(AJ12, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="BM12" s="17">
-        <f>RANK(AL12, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="BN12" s="17">
-        <f>RANK(AN12, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="BO12" s="17">
-        <f>RANK(AP12, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
     </row>
@@ -3629,7 +3637,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="6">
-        <f>B13/D13</f>
+        <f t="shared" si="0"/>
         <v>6.036606766303846E-2</v>
       </c>
       <c r="G13" s="17">
@@ -3648,7 +3656,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="6">
-        <f>H13/J13</f>
+        <f t="shared" si="1"/>
         <v>0.25486543604642536</v>
       </c>
       <c r="M13" s="17">
@@ -3667,7 +3675,7 @@
         <v>1</v>
       </c>
       <c r="R13" s="6">
-        <f>N13/P13</f>
+        <f t="shared" si="2"/>
         <v>0.74294785990962542</v>
       </c>
       <c r="S13" s="17">
@@ -3686,7 +3694,7 @@
         <v>7</v>
       </c>
       <c r="X13" s="6">
-        <f>T13/V13</f>
+        <f t="shared" si="3"/>
         <v>0.11166759519231821</v>
       </c>
       <c r="Y13" s="17">
@@ -3705,7 +3713,7 @@
         <v>11</v>
       </c>
       <c r="AD13" s="6">
-        <f>Z13/AB13</f>
+        <f t="shared" si="4"/>
         <v>0.69382773920553009</v>
       </c>
       <c r="AE13" s="17">
@@ -3724,7 +3732,7 @@
         <v>5</v>
       </c>
       <c r="AJ13" s="6">
-        <f>AF13/AH13</f>
+        <f t="shared" si="5"/>
         <v>0.77913742143942</v>
       </c>
       <c r="AK13" s="17">
@@ -3743,7 +3751,7 @@
         <v>7</v>
       </c>
       <c r="AP13" s="13">
-        <f>AL13/AN13</f>
+        <f t="shared" si="6"/>
         <v>0.11166759519231821</v>
       </c>
       <c r="AQ13" s="17">
@@ -3759,87 +3767,87 @@
         <v>573.67298830925245</v>
       </c>
       <c r="AU13" s="17">
-        <f>RANK(B13, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="AV13" s="17">
-        <f>RANK(D13, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AW13" s="17">
-        <f>RANK(F13, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="AX13" s="17">
-        <f>RANK(H13, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="AY13" s="17">
-        <f>RANK(J13, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="AZ13" s="17">
-        <f>RANK(L13, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>21</v>
       </c>
       <c r="BA13" s="17">
-        <f>RANK(N13, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="BB13" s="17">
-        <f>RANK(P13, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BC13" s="17">
-        <f>RANK(R13, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="BD13" s="17">
-        <f>RANK(T13, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="BE13" s="17">
-        <f>RANK(V13, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>7</v>
       </c>
       <c r="BF13" s="17">
-        <f>RANK(X13, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>22</v>
       </c>
       <c r="BG13" s="17">
-        <f>RANK(Z13, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>19</v>
       </c>
       <c r="BH13" s="17">
-        <f>RANK(AB13, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="BI13" s="17">
-        <f>RANK(AD13, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>21</v>
       </c>
       <c r="BJ13" s="17">
-        <f>RANK(AF13, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="BK13" s="17">
-        <f>RANK(AH13, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>5</v>
       </c>
       <c r="BL13" s="17">
-        <f>RANK(AJ13, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>18</v>
       </c>
       <c r="BM13" s="17">
-        <f>RANK(AL13, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>22</v>
       </c>
       <c r="BN13" s="17">
-        <f>RANK(AN13, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="BO13" s="17">
-        <f>RANK(AP13, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>22</v>
       </c>
     </row>
@@ -3860,7 +3868,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="6">
-        <f>B14/D14</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G14" s="17">
@@ -3879,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="6">
-        <f>H14/J14</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M14" s="17">
@@ -3898,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="R14" s="6">
-        <f>N14/P14</f>
+        <f t="shared" si="2"/>
         <v>0.99999999999998801</v>
       </c>
       <c r="S14" s="17">
@@ -3917,7 +3925,7 @@
         <v>21</v>
       </c>
       <c r="X14" s="6">
-        <f>T14/V14</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y14" s="17">
@@ -3936,7 +3944,7 @@
         <v>1</v>
       </c>
       <c r="AD14" s="6">
-        <f>Z14/AB14</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE14" s="17">
@@ -3955,7 +3963,7 @@
         <v>2</v>
       </c>
       <c r="AJ14" s="6">
-        <f>AF14/AH14</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AK14" s="17">
@@ -3974,7 +3982,7 @@
         <v>21</v>
       </c>
       <c r="AP14" s="13">
-        <f>AL14/AN14</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AQ14" s="17">
@@ -3990,87 +3998,87 @@
         <v>0</v>
       </c>
       <c r="AU14" s="17">
-        <f>RANK(B14, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="AV14" s="17">
-        <f>RANK(D14, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AW14" s="17">
-        <f>RANK(F14, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AX14" s="17">
-        <f>RANK(H14, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="AY14" s="17">
-        <f>RANK(J14, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AZ14" s="17">
-        <f>RANK(L14, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="BA14" s="17">
-        <f>RANK(N14, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BB14" s="17">
-        <f>RANK(P14, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="BC14" s="17">
-        <f>RANK(R14, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="BD14" s="17">
-        <f>RANK(T14, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="BE14" s="17">
-        <f>RANK(V14, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="BF14" s="17">
-        <f>RANK(X14, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="BG14" s="17">
-        <f>RANK(Z14, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="BH14" s="17">
-        <f>RANK(AB14, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="BI14" s="17">
-        <f>RANK(AD14, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="BJ14" s="17">
-        <f>RANK(AF14, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BK14" s="17">
-        <f>RANK(AH14, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="BL14" s="17">
-        <f>RANK(AJ14, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="BM14" s="17">
-        <f>RANK(AL14, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="BN14" s="17">
-        <f>RANK(AN14, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>21</v>
       </c>
       <c r="BO14" s="17">
-        <f>RANK(AP14, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
     </row>
@@ -4091,7 +4099,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="6">
-        <f>B15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.95041642896948808</v>
       </c>
       <c r="G15" s="17">
@@ -4110,7 +4118,7 @@
         <v>16</v>
       </c>
       <c r="L15" s="6">
-        <f>H15/J15</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="M15" s="17">
@@ -4129,7 +4137,7 @@
         <v>9</v>
       </c>
       <c r="R15" s="6">
-        <f>N15/P15</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="S15" s="17">
@@ -4148,7 +4156,7 @@
         <v>14</v>
       </c>
       <c r="X15" s="6">
-        <f>T15/V15</f>
+        <f t="shared" si="3"/>
         <v>0.95041642896948764</v>
       </c>
       <c r="Y15" s="17">
@@ -4167,7 +4175,7 @@
         <v>16</v>
       </c>
       <c r="AD15" s="6">
-        <f>Z15/AB15</f>
+        <f t="shared" si="4"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="AE15" s="17">
@@ -4186,7 +4194,7 @@
         <v>14</v>
       </c>
       <c r="AJ15" s="6">
-        <f>AF15/AH15</f>
+        <f t="shared" si="5"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AK15" s="17">
@@ -4205,7 +4213,7 @@
         <v>14</v>
       </c>
       <c r="AP15" s="13">
-        <f>AL15/AN15</f>
+        <f t="shared" si="6"/>
         <v>0.95041642896948764</v>
       </c>
       <c r="AQ15" s="17">
@@ -4221,87 +4229,87 @@
         <v>4.5459726606849458</v>
       </c>
       <c r="AU15" s="17">
-        <f>RANK(B15, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="AV15" s="17">
-        <f>RANK(D15, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="AW15" s="17">
-        <f>RANK(F15, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="AX15" s="17">
-        <f>RANK(H15, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="AY15" s="17">
-        <f>RANK(J15, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="AZ15" s="17">
-        <f>RANK(L15, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="BA15" s="17">
-        <f>RANK(N15, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="BB15" s="17">
-        <f>RANK(P15, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>9</v>
       </c>
       <c r="BC15" s="17">
-        <f>RANK(R15, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="BD15" s="17">
-        <f>RANK(T15, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
       <c r="BE15" s="17">
-        <f>RANK(V15, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="BF15" s="17">
-        <f>RANK(X15, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>13</v>
       </c>
       <c r="BG15" s="17">
-        <f>RANK(Z15, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>13</v>
       </c>
       <c r="BH15" s="17">
-        <f>RANK(AB15, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="BI15" s="17">
-        <f>RANK(AD15, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="BJ15" s="17">
-        <f>RANK(AF15, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="BK15" s="17">
-        <f>RANK(AH15, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>14</v>
       </c>
       <c r="BL15" s="17">
-        <f>RANK(AJ15, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="BM15" s="17">
-        <f>RANK(AL15, AL$2:AL$23)</f>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="BN15" s="17">
-        <f>RANK(AN15, AN$2:AN$23)</f>
+        <f t="shared" si="26"/>
         <v>14</v>
       </c>
       <c r="BO15" s="17">
-        <f>RANK(AP15, AP$2:AP$23)</f>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
     </row>
@@ -4322,7 +4330,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="6">
-        <f>B16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.83776808925614188</v>
       </c>
       <c r="G16" s="17">
@@ -4341,7 +4349,7 @@
         <v>21</v>
       </c>
       <c r="L16" s="6">
-        <f>H16/J16</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M16" s="17">
@@ -4360,7 +4368,7 @@
         <v>7</v>
       </c>
       <c r="R16" s="6">
-        <f>N16/P16</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S16" s="17">
@@ -4379,7 +4387,7 @@
         <v>10</v>
       </c>
       <c r="X16" s="6">
-        <f>T16/V16</f>
+        <f t="shared" si="3"/>
         <v>0.83776808925614155</v>
       </c>
       <c r="Y16" s="17">
@@ -4398,7 +4406,7 @@
         <v>21</v>
       </c>
       <c r="AD16" s="6">
-        <f>Z16/AB16</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="AE16" s="17">
@@ -4417,7 +4425,7 @@
         <v>13</v>
       </c>
       <c r="AJ16" s="6">
-        <f>AF16/AH16</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AK16" s="17">
@@ -4436,7 +4444,7 @@
         <v>10</v>
       </c>
       <c r="AP16" s="13">
-        <f>AL16/AN16</f>
+        <f t="shared" si="6"/>
         <v>0.83776808925614155</v>
       </c>
       <c r="AQ16" s="17">
@@ -4452,87 +4460,87 @@
         <v>24.949286631482561</v>
       </c>
       <c r="AU16" s="17">
-        <f>RANK(B16, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="AV16" s="17">
-        <f>RANK(D16, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="AW16" s="17">
-        <f>RANK(F16, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="AX16" s="17">
-        <f>RANK(H16, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="AY16" s="17">
-        <f>RANK(J16, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="AZ16" s="17">
-        <f>RANK(L16, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="BA16" s="17">
-        <f>RANK(N16, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="BB16" s="17">
-        <f>RANK(P16, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
       <c r="BC16" s="17">
-        <f>RANK(R16, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="BD16" s="17">
-        <f>RANK(T16, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="BE16" s="17">
-        <f>RANK(V16, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>10</v>
       </c>
       <c r="BF16" s="17">
-        <f>RANK(X16, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>18</v>
       </c>
       <c r="BG16" s="17">
-        <f>RANK(Z16, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>21</v>
       </c>
       <c r="BH16" s="17">
-        <f>RANK(AB16, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>21</v>
       </c>
       <c r="BI16" s="17">
-        <f>RANK(AD16, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="BJ16" s="17">
-        <f>RANK(AF16, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="BK16" s="17">
-        <f>RANK(AH16, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>13</v>
       </c>
       <c r="BL16" s="17">
-        <f>RANK(AJ16, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="BM16" s="17">
-        <f t="shared" ref="BM16:BM23" si="0">RANK(AL16, AL$2:AL$23)</f>
+        <f t="shared" ref="BM16:BM23" si="28">RANK(AL16, AL$2:AL$23)</f>
         <v>11</v>
       </c>
       <c r="BN16" s="17">
-        <f t="shared" ref="BN16:BN23" si="1">RANK(AN16, AN$2:AN$23)</f>
+        <f t="shared" ref="BN16:BN23" si="29">RANK(AN16, AN$2:AN$23)</f>
         <v>10</v>
       </c>
       <c r="BO16" s="17">
-        <f t="shared" ref="BO16:BO23" si="2">RANK(AP16, AP$2:AP$23)</f>
+        <f t="shared" ref="BO16:BO23" si="30">RANK(AP16, AP$2:AP$23)</f>
         <v>18</v>
       </c>
     </row>
@@ -4553,7 +4561,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="6">
-        <f>B17/D17</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G17" s="17">
@@ -4572,7 +4580,7 @@
         <v>19</v>
       </c>
       <c r="L17" s="6">
-        <f>H17/J17</f>
+        <f t="shared" si="1"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="M17" s="17">
@@ -4591,7 +4599,7 @@
         <v>10</v>
       </c>
       <c r="R17" s="6">
-        <f>N17/P17</f>
+        <f t="shared" si="2"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="S17" s="17">
@@ -4610,7 +4618,7 @@
         <v>15</v>
       </c>
       <c r="X17" s="6">
-        <f>T17/V17</f>
+        <f t="shared" si="3"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="Y17" s="17">
@@ -4629,7 +4637,7 @@
         <v>19</v>
       </c>
       <c r="AD17" s="6">
-        <f>Z17/AB17</f>
+        <f t="shared" si="4"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="AE17" s="17">
@@ -4648,7 +4656,7 @@
         <v>20</v>
       </c>
       <c r="AJ17" s="6">
-        <f>AF17/AH17</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AK17" s="17">
@@ -4667,7 +4675,7 @@
         <v>15</v>
       </c>
       <c r="AP17" s="13">
-        <f>AL17/AN17</f>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="AQ17" s="17">
@@ -4683,87 +4691,87 @@
         <v>0</v>
       </c>
       <c r="AU17" s="17">
-        <f>RANK(B17, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="AV17" s="17">
-        <f>RANK(D17, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="AW17" s="17">
-        <f>RANK(F17, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AX17" s="17">
-        <f>RANK(H17, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
       <c r="AY17" s="17">
-        <f>RANK(J17, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="AZ17" s="17">
-        <f>RANK(L17, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
       <c r="BA17" s="17">
-        <f>RANK(N17, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="BB17" s="17">
-        <f>RANK(P17, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="BC17" s="17">
-        <f>RANK(R17, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="BD17" s="17">
-        <f>RANK(T17, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="BE17" s="17">
-        <f>RANK(V17, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="BF17" s="17">
-        <f>RANK(X17, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
       <c r="BG17" s="17">
-        <f>RANK(Z17, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="BH17" s="17">
-        <f>RANK(AB17, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="BI17" s="17">
-        <f>RANK(AD17, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="BJ17" s="17">
-        <f>RANK(AF17, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>19</v>
       </c>
       <c r="BK17" s="17">
-        <f>RANK(AH17, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>20</v>
       </c>
       <c r="BL17" s="17">
-        <f>RANK(AJ17, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="BM17" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="BN17" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>15</v>
       </c>
       <c r="BO17" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
     </row>
@@ -4784,7 +4792,7 @@
         <v>22</v>
       </c>
       <c r="F18" s="6">
-        <f>B18/D18</f>
+        <f t="shared" si="0"/>
         <v>0.6762350537888272</v>
       </c>
       <c r="G18" s="17">
@@ -4803,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="6">
-        <f>H18/J18</f>
+        <f t="shared" si="1"/>
         <v>0.35336963671229299</v>
       </c>
       <c r="M18" s="17">
@@ -4822,7 +4830,7 @@
         <v>15</v>
       </c>
       <c r="R18" s="6">
-        <f>N18/P18</f>
+        <f t="shared" si="2"/>
         <v>1.0173122540897954</v>
       </c>
       <c r="S18" s="17">
@@ -4841,7 +4849,7 @@
         <v>5</v>
       </c>
       <c r="X18" s="6">
-        <f>T18/V18</f>
+        <f t="shared" si="3"/>
         <v>0.77081296173094027</v>
       </c>
       <c r="Y18" s="17">
@@ -4860,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="AD18" s="6">
-        <f>Z18/AB18</f>
+        <f t="shared" si="4"/>
         <v>0.66608111520608404</v>
       </c>
       <c r="AE18" s="17">
@@ -4879,7 +4887,7 @@
         <v>22</v>
       </c>
       <c r="AJ18" s="6">
-        <f>AF18/AH18</f>
+        <f t="shared" si="5"/>
         <v>1.317108491630903</v>
       </c>
       <c r="AK18" s="17">
@@ -4898,7 +4906,7 @@
         <v>5</v>
       </c>
       <c r="AP18" s="13">
-        <f>AL18/AN18</f>
+        <f t="shared" si="6"/>
         <v>0.77081296173094027</v>
       </c>
       <c r="AQ18" s="17">
@@ -4914,87 +4922,87 @@
         <v>99.170988318432592</v>
       </c>
       <c r="AU18" s="17">
-        <f>RANK(B18, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="AV18" s="17">
-        <f>RANK(D18, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="AW18" s="17">
-        <f>RANK(F18, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="AX18" s="17">
-        <f>RANK(H18, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="AY18" s="17">
-        <f>RANK(J18, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AZ18" s="17">
-        <f>RANK(L18, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>20</v>
       </c>
       <c r="BA18" s="17">
-        <f>RANK(N18, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="BB18" s="17">
-        <f>RANK(P18, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>15</v>
       </c>
       <c r="BC18" s="17">
-        <f>RANK(R18, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="BD18" s="17">
-        <f>RANK(T18, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
       <c r="BE18" s="17">
-        <f>RANK(V18, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="BF18" s="17">
-        <f>RANK(X18, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>19</v>
       </c>
       <c r="BG18" s="17">
-        <f>RANK(Z18, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>14</v>
       </c>
       <c r="BH18" s="17">
-        <f>RANK(AB18, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="BI18" s="17">
-        <f>RANK(AD18, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>22</v>
       </c>
       <c r="BJ18" s="17">
-        <f>RANK(AF18, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="BK18" s="17">
-        <f>RANK(AH18, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>22</v>
       </c>
       <c r="BL18" s="17">
-        <f>RANK(AJ18, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="BM18" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="BN18" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="BO18" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>19</v>
       </c>
     </row>
@@ -5015,7 +5023,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="6">
-        <f>B19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.91088937913920887</v>
       </c>
       <c r="G19" s="17">
@@ -5034,7 +5042,7 @@
         <v>15</v>
       </c>
       <c r="L19" s="6">
-        <f>H19/J19</f>
+        <f t="shared" si="1"/>
         <v>1.3462500803586031</v>
       </c>
       <c r="M19" s="17">
@@ -5053,7 +5061,7 @@
         <v>18</v>
       </c>
       <c r="R19" s="6">
-        <f>N19/P19</f>
+        <f t="shared" si="2"/>
         <v>1.9551269290639641</v>
       </c>
       <c r="S19" s="17">
@@ -5072,7 +5080,7 @@
         <v>19</v>
       </c>
       <c r="X19" s="6">
-        <f>T19/V19</f>
+        <f t="shared" si="3"/>
         <v>0.9372838515852967</v>
       </c>
       <c r="Y19" s="17">
@@ -5091,7 +5099,7 @@
         <v>15</v>
       </c>
       <c r="AD19" s="6">
-        <f>Z19/AB19</f>
+        <f t="shared" si="4"/>
         <v>1.0842192617824262</v>
       </c>
       <c r="AE19" s="17">
@@ -5110,7 +5118,7 @@
         <v>10</v>
       </c>
       <c r="AJ19" s="6">
-        <f>AF19/AH19</f>
+        <f t="shared" si="5"/>
         <v>0.89634950941592395</v>
       </c>
       <c r="AK19" s="17">
@@ -5129,7 +5137,7 @@
         <v>19</v>
       </c>
       <c r="AP19" s="13">
-        <f>AL19/AN19</f>
+        <f t="shared" si="6"/>
         <v>0.9372838515852967</v>
       </c>
       <c r="AQ19" s="17">
@@ -5145,87 +5153,87 @@
         <v>2.5736217505015389</v>
       </c>
       <c r="AU19" s="17">
-        <f>RANK(B19, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="AV19" s="17">
-        <f>RANK(D19, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="AW19" s="17">
-        <f>RANK(F19, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="AX19" s="17">
-        <f>RANK(H19, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="AY19" s="17">
-        <f>RANK(J19, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="AZ19" s="17">
-        <f>RANK(L19, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="BA19" s="17">
-        <f>RANK(N19, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="BB19" s="17">
-        <f>RANK(P19, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>18</v>
       </c>
       <c r="BC19" s="17">
-        <f>RANK(R19, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="BD19" s="17">
-        <f>RANK(T19, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="BE19" s="17">
-        <f>RANK(V19, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>19</v>
       </c>
       <c r="BF19" s="17">
-        <f>RANK(X19, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>14</v>
       </c>
       <c r="BG19" s="17">
-        <f>RANK(Z19, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>7</v>
       </c>
       <c r="BH19" s="17">
-        <f>RANK(AB19, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="BI19" s="17">
-        <f>RANK(AD19, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="BJ19" s="17">
-        <f>RANK(AF19, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="BK19" s="17">
-        <f>RANK(AH19, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>10</v>
       </c>
       <c r="BL19" s="17">
-        <f>RANK(AJ19, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>17</v>
       </c>
       <c r="BM19" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="BN19" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>19</v>
       </c>
       <c r="BO19" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
     </row>
@@ -5246,7 +5254,7 @@
         <v>9</v>
       </c>
       <c r="F20" s="6">
-        <f>B20/D20</f>
+        <f t="shared" si="0"/>
         <v>0.99528343144682929</v>
       </c>
       <c r="G20" s="17">
@@ -5265,7 +5273,7 @@
         <v>14</v>
       </c>
       <c r="L20" s="6">
-        <f>H20/J20</f>
+        <f t="shared" si="1"/>
         <v>0.94248557372285191</v>
       </c>
       <c r="M20" s="17">
@@ -5284,7 +5292,7 @@
         <v>16</v>
       </c>
       <c r="R20" s="6">
-        <f>N20/P20</f>
+        <f t="shared" si="2"/>
         <v>1.0442229567091565</v>
       </c>
       <c r="S20" s="17">
@@ -5303,7 +5311,7 @@
         <v>8</v>
       </c>
       <c r="X20" s="6">
-        <f>T20/V20</f>
+        <f t="shared" si="3"/>
         <v>1.0070958687146876</v>
       </c>
       <c r="Y20" s="17">
@@ -5322,7 +5330,7 @@
         <v>13</v>
       </c>
       <c r="AD20" s="6">
-        <f>Z20/AB20</f>
+        <f t="shared" si="4"/>
         <v>0.96738861280412991</v>
       </c>
       <c r="AE20" s="17">
@@ -5341,7 +5349,7 @@
         <v>17</v>
       </c>
       <c r="AJ20" s="6">
-        <f>AF20/AH20</f>
+        <f t="shared" si="5"/>
         <v>1.0215861325781241</v>
       </c>
       <c r="AK20" s="17">
@@ -5360,7 +5368,7 @@
         <v>8</v>
       </c>
       <c r="AP20" s="13">
-        <f>AL20/AN20</f>
+        <f t="shared" si="6"/>
         <v>1.0070958687146876</v>
       </c>
       <c r="AQ20" s="17">
@@ -5376,87 +5384,87 @@
         <v>0</v>
       </c>
       <c r="AU20" s="17">
-        <f>RANK(B20, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="AV20" s="17">
-        <f>RANK(D20, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="AW20" s="17">
-        <f>RANK(F20, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="AX20" s="17">
-        <f>RANK(H20, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="AY20" s="17">
-        <f>RANK(J20, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="AZ20" s="17">
-        <f>RANK(L20, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
       <c r="BA20" s="17">
-        <f>RANK(N20, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="BB20" s="17">
-        <f>RANK(P20, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>16</v>
       </c>
       <c r="BC20" s="17">
-        <f>RANK(R20, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="BD20" s="17">
-        <f>RANK(T20, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
       <c r="BE20" s="17">
-        <f>RANK(V20, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>8</v>
       </c>
       <c r="BF20" s="17">
-        <f>RANK(X20, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
       <c r="BG20" s="17">
-        <f>RANK(Z20, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>10</v>
       </c>
       <c r="BH20" s="17">
-        <f>RANK(AB20, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="BI20" s="17">
-        <f>RANK(AD20, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="BJ20" s="17">
-        <f>RANK(AF20, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="BK20" s="17">
-        <f>RANK(AH20, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>17</v>
       </c>
       <c r="BL20" s="17">
-        <f>RANK(AJ20, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="BM20" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
       <c r="BN20" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>8</v>
       </c>
       <c r="BO20" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
     </row>
@@ -5477,7 +5485,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="6">
-        <f>B21/D21</f>
+        <f t="shared" si="0"/>
         <v>0.99986957758786843</v>
       </c>
       <c r="G21" s="17">
@@ -5496,7 +5504,7 @@
         <v>20</v>
       </c>
       <c r="L21" s="6">
-        <f>H21/J21</f>
+        <f t="shared" si="1"/>
         <v>1.0410989067077023</v>
       </c>
       <c r="M21" s="17">
@@ -5515,7 +5523,7 @@
         <v>20</v>
       </c>
       <c r="R21" s="6">
-        <f>N21/P21</f>
+        <f t="shared" si="2"/>
         <v>0.9994151453407295</v>
       </c>
       <c r="S21" s="17">
@@ -5534,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="X21" s="6">
-        <f>T21/V21</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Y21" s="17">
@@ -5553,7 +5561,7 @@
         <v>20</v>
       </c>
       <c r="AD21" s="6">
-        <f>Z21/AB21</f>
+        <f t="shared" si="4"/>
         <v>1.0038938726846005</v>
       </c>
       <c r="AE21" s="17">
@@ -5572,7 +5580,7 @@
         <v>21</v>
       </c>
       <c r="AJ21" s="6">
-        <f>AF21/AH21</f>
+        <f t="shared" si="5"/>
         <v>0.99599131421534592</v>
       </c>
       <c r="AK21" s="17">
@@ -5591,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="AP21" s="13">
-        <f>AL21/AN21</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="AQ21" s="17">
@@ -5607,87 +5615,87 @@
         <v>0</v>
       </c>
       <c r="AU21" s="17">
-        <f>RANK(B21, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="AV21" s="17">
-        <f>RANK(D21, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="AW21" s="17">
-        <f>RANK(F21, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="AX21" s="17">
-        <f>RANK(H21, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
       <c r="AY21" s="17">
-        <f>RANK(J21, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="AZ21" s="17">
-        <f>RANK(L21, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="BA21" s="17">
-        <f>RANK(N21, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="BB21" s="17">
-        <f>RANK(P21, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>20</v>
       </c>
       <c r="BC21" s="17">
-        <f>RANK(R21, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="BD21" s="17">
-        <f>RANK(T21, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="BE21" s="17">
-        <f>RANK(V21, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="BF21" s="17">
-        <f>RANK(X21, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
       <c r="BG21" s="17">
-        <f>RANK(Z21, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>18</v>
       </c>
       <c r="BH21" s="17">
-        <f>RANK(AB21, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="BI21" s="17">
-        <f>RANK(AD21, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>3</v>
       </c>
       <c r="BJ21" s="17">
-        <f>RANK(AF21, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="BK21" s="17">
-        <f>RANK(AH21, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="BL21" s="17">
-        <f>RANK(AJ21, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>14</v>
       </c>
       <c r="BM21" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="BN21" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="BO21" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
     </row>
@@ -5708,7 +5716,7 @@
         <v>3</v>
       </c>
       <c r="F22" s="6">
-        <f>B22/D22</f>
+        <f t="shared" si="0"/>
         <v>9.9744065774181351E-2</v>
       </c>
       <c r="G22" s="17">
@@ -5727,7 +5735,7 @@
         <v>17</v>
       </c>
       <c r="L22" s="6">
-        <f>H22/J22</f>
+        <f t="shared" si="1"/>
         <v>0.21739180986534631</v>
       </c>
       <c r="M22" s="17">
@@ -5746,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="6">
-        <f>N22/P22</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S22" s="17">
@@ -5765,7 +5773,7 @@
         <v>6</v>
       </c>
       <c r="X22" s="6">
-        <f>T22/V22</f>
+        <f t="shared" si="3"/>
         <v>0.11936934782792356</v>
       </c>
       <c r="Y22" s="17">
@@ -5784,7 +5792,7 @@
         <v>17</v>
       </c>
       <c r="AD22" s="6">
-        <f>Z22/AB22</f>
+        <f t="shared" si="4"/>
         <v>0.83559194708818429</v>
       </c>
       <c r="AE22" s="17">
@@ -5803,7 +5811,7 @@
         <v>2</v>
       </c>
       <c r="AJ22" s="6">
-        <f>AF22/AH22</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="AK22" s="17">
@@ -5822,7 +5830,7 @@
         <v>6</v>
       </c>
       <c r="AP22" s="13">
-        <f>AL22/AN22</f>
+        <f t="shared" si="6"/>
         <v>0.11936934782792356</v>
       </c>
       <c r="AQ22" s="17">
@@ -5838,87 +5846,87 @@
         <v>258.18746785984308</v>
       </c>
       <c r="AU22" s="17">
-        <f>RANK(B22, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="AV22" s="17">
-        <f>RANK(D22, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="AW22" s="17">
-        <f>RANK(F22, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
       <c r="AX22" s="17">
-        <f>RANK(H22, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="AY22" s="17">
-        <f>RANK(J22, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="AZ22" s="17">
-        <f>RANK(L22, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="BA22" s="17">
-        <f>RANK(N22, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="BB22" s="17">
-        <f>RANK(P22, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BC22" s="17">
-        <f>RANK(R22, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="BD22" s="17">
-        <f>RANK(T22, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="BE22" s="17">
-        <f>RANK(V22, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>6</v>
       </c>
       <c r="BF22" s="17">
-        <f>RANK(X22, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>21</v>
       </c>
       <c r="BG22" s="17">
-        <f>RANK(Z22, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="BH22" s="17">
-        <f>RANK(AB22, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="BI22" s="17">
-        <f>RANK(AD22, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="BJ22" s="17">
-        <f>RANK(AF22, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="BK22" s="17">
-        <f>RANK(AH22, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="BL22" s="17">
-        <f>RANK(AJ22, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="BM22" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="BN22" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>6</v>
       </c>
       <c r="BO22" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
     </row>
@@ -5939,7 +5947,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="6">
-        <f>B23/D23</f>
+        <f t="shared" si="0"/>
         <v>0.87532820995783645</v>
       </c>
       <c r="G23" s="17">
@@ -5958,7 +5966,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="6">
-        <f>H23/J23</f>
+        <f t="shared" si="1"/>
         <v>2.1866674877606251</v>
       </c>
       <c r="M23" s="17">
@@ -5977,7 +5985,7 @@
         <v>1</v>
       </c>
       <c r="R23" s="6">
-        <f>N23/P23</f>
+        <f t="shared" si="2"/>
         <v>0.98399197031710006</v>
       </c>
       <c r="S23" s="17">
@@ -5996,7 +6004,7 @@
         <v>22</v>
       </c>
       <c r="X23" s="6">
-        <f>T23/V23</f>
+        <f t="shared" si="3"/>
         <v>0.87272888597385212</v>
       </c>
       <c r="Y23" s="17">
@@ -6015,7 +6023,7 @@
         <v>22</v>
       </c>
       <c r="AD23" s="6">
-        <f>Z23/AB23</f>
+        <f t="shared" si="4"/>
         <v>1.0186950451658927</v>
       </c>
       <c r="AE23" s="17">
@@ -6034,7 +6042,7 @@
         <v>2</v>
       </c>
       <c r="AJ23" s="6">
-        <f>AF23/AH23</f>
+        <f t="shared" si="5"/>
         <v>0.984571772797881</v>
       </c>
       <c r="AK23" s="17">
@@ -6053,7 +6061,7 @@
         <v>22</v>
       </c>
       <c r="AP23" s="13">
-        <f>AL23/AN23</f>
+        <f t="shared" si="6"/>
         <v>0.87272888597385212</v>
       </c>
       <c r="AQ23" s="17">
@@ -6069,87 +6077,87 @@
         <v>2.8710958451328068</v>
       </c>
       <c r="AU23" s="17">
-        <f>RANK(B23, B$2:B$23)</f>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="AV23" s="17">
-        <f>RANK(D23, D$2:D$23)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="AW23" s="17">
-        <f>RANK(F23, F$2:F$23)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="AX23" s="17">
-        <f>RANK(H23, H$2:H$23)</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="AY23" s="17">
-        <f>RANK(J23, J$2:J$23)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="AZ23" s="17">
-        <f>RANK(L23, L$2:L$23)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="BA23" s="17">
-        <f>RANK(N23, N$2:N$23)</f>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="BB23" s="17">
-        <f>RANK(P23, P$2:P$23)</f>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="BC23" s="17">
-        <f>RANK(R23, R$2:R$23)</f>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="BD23" s="17">
-        <f>RANK(T23, T$2:T$23)</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="BE23" s="17">
-        <f>RANK(V23, V$2:V$23)</f>
+        <f t="shared" si="17"/>
         <v>22</v>
       </c>
       <c r="BF23" s="17">
-        <f>RANK(X23, X$2:X$23)</f>
+        <f t="shared" si="18"/>
         <v>16</v>
       </c>
       <c r="BG23" s="17">
-        <f>RANK(Z23, Z$2:Z$23)</f>
+        <f t="shared" si="19"/>
         <v>22</v>
       </c>
       <c r="BH23" s="17">
-        <f>RANK(AB23, AB$2:AB$23)</f>
+        <f t="shared" si="20"/>
         <v>22</v>
       </c>
       <c r="BI23" s="17">
-        <f>RANK(AD23, AD$2:AD$23)</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="BJ23" s="17">
-        <f>RANK(AF23, AF$2:AF$23)</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="BK23" s="17">
-        <f>RANK(AH23, AH$2:AH$23)</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="BL23" s="17">
-        <f>RANK(AJ23, AJ$2:AJ$23)</f>
+        <f t="shared" si="24"/>
         <v>15</v>
       </c>
       <c r="BM23" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="28"/>
         <v>20</v>
       </c>
       <c r="BN23" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="29"/>
         <v>22</v>
       </c>
       <c r="BO23" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="30"/>
         <v>16</v>
       </c>
     </row>
@@ -11168,10 +11176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BO244"/>
+  <dimension ref="A1:DI244"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BN15" zoomScale="132" workbookViewId="0">
+      <selection activeCell="CQ48" sqref="CQ48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -11184,6 +11192,38 @@
     <col min="31" max="33" width="9" customWidth="1"/>
     <col min="36" max="36" width="9" style="9"/>
     <col min="37" max="39" width="9" customWidth="1"/>
+    <col min="68" max="68" width="12.796875" customWidth="1"/>
+    <col min="70" max="70" width="5" customWidth="1"/>
+    <col min="72" max="72" width="5" customWidth="1"/>
+    <col min="74" max="74" width="5" customWidth="1"/>
+    <col min="75" max="75" width="9" hidden="1" customWidth="1"/>
+    <col min="76" max="76" width="5" hidden="1" customWidth="1"/>
+    <col min="77" max="77" width="0" hidden="1" customWidth="1"/>
+    <col min="78" max="78" width="5" hidden="1" customWidth="1"/>
+    <col min="79" max="79" width="0" hidden="1" customWidth="1"/>
+    <col min="80" max="80" width="5" hidden="1" customWidth="1"/>
+    <col min="81" max="81" width="0" hidden="1" customWidth="1"/>
+    <col min="82" max="82" width="5" hidden="1" customWidth="1"/>
+    <col min="83" max="83" width="0" hidden="1" customWidth="1"/>
+    <col min="84" max="84" width="5" hidden="1" customWidth="1"/>
+    <col min="85" max="85" width="0" hidden="1" customWidth="1"/>
+    <col min="86" max="86" width="5" hidden="1" customWidth="1"/>
+    <col min="87" max="87" width="0" hidden="1" customWidth="1"/>
+    <col min="88" max="88" width="5" hidden="1" customWidth="1"/>
+    <col min="89" max="89" width="0" hidden="1" customWidth="1"/>
+    <col min="90" max="90" width="5" hidden="1" customWidth="1"/>
+    <col min="91" max="91" width="0" hidden="1" customWidth="1"/>
+    <col min="92" max="92" width="5" hidden="1" customWidth="1"/>
+    <col min="94" max="94" width="5" customWidth="1"/>
+    <col min="96" max="96" width="5" customWidth="1"/>
+    <col min="98" max="98" width="5" customWidth="1"/>
+    <col min="100" max="100" width="5" customWidth="1"/>
+    <col min="102" max="102" width="5" customWidth="1"/>
+    <col min="104" max="104" width="5" customWidth="1"/>
+    <col min="106" max="106" width="5" customWidth="1"/>
+    <col min="108" max="108" width="5" customWidth="1"/>
+    <col min="110" max="110" width="5" customWidth="1"/>
+    <col min="123" max="123" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:67">
@@ -11432,71 +11472,71 @@
         <v>2</v>
       </c>
       <c r="AV2" s="16">
-        <f>RANK(D2, D$2:D$15)</f>
+        <f t="shared" ref="AV2:AV15" si="0">RANK(D2, D$2:D$15)</f>
         <v>4</v>
       </c>
       <c r="AW2" s="16">
-        <f>RANK(F2, F$2:F$15)</f>
+        <f t="shared" ref="AW2:AW15" si="1">RANK(F2, F$2:F$15)</f>
         <v>5</v>
       </c>
       <c r="AX2" s="16">
-        <f>RANK(H2, H$2:H$15)</f>
+        <f t="shared" ref="AX2:AX15" si="2">RANK(H2, H$2:H$15)</f>
         <v>5</v>
       </c>
       <c r="AY2" s="16">
-        <f>RANK(J2, J$2:J$15)</f>
+        <f t="shared" ref="AY2:AY15" si="3">RANK(J2, J$2:J$15)</f>
         <v>6</v>
       </c>
       <c r="AZ2" s="16">
-        <f>RANK(L2, L$2:L$15)</f>
+        <f t="shared" ref="AZ2:AZ15" si="4">RANK(L2, L$2:L$15)</f>
         <v>8</v>
       </c>
       <c r="BA2" s="16">
-        <f>RANK(N2, N$2:N$15)</f>
+        <f t="shared" ref="BA2:BA15" si="5">RANK(N2, N$2:N$15)</f>
         <v>13</v>
       </c>
       <c r="BB2" s="16">
-        <f>RANK(P2, P$2:P$15)</f>
+        <f t="shared" ref="BB2:BB15" si="6">RANK(P2, P$2:P$15)</f>
         <v>11</v>
       </c>
       <c r="BC2" s="16">
-        <f>RANK(R2, R$2:R$15)</f>
+        <f t="shared" ref="BC2:BC15" si="7">RANK(R2, R$2:R$15)</f>
         <v>8</v>
       </c>
       <c r="BD2" s="16">
-        <f>RANK(T2, T$2:T$15)</f>
+        <f t="shared" ref="BD2:BD15" si="8">RANK(T2, T$2:T$15)</f>
         <v>1</v>
       </c>
       <c r="BE2" s="16">
-        <f>RANK(V2, V$2:V$15)</f>
+        <f t="shared" ref="BE2:BE15" si="9">RANK(V2, V$2:V$15)</f>
         <v>1</v>
       </c>
       <c r="BF2" s="16">
-        <f>RANK(X2, X$2:X$15)</f>
+        <f t="shared" ref="BF2:BF15" si="10">RANK(X2, X$2:X$15)</f>
         <v>3</v>
       </c>
       <c r="BG2" s="16">
-        <f>RANK(Z2, Z$2:Z$15)</f>
+        <f t="shared" ref="BG2:BG15" si="11">RANK(Z2, Z$2:Z$15)</f>
         <v>6</v>
       </c>
       <c r="BH2" s="16">
-        <f>RANK(AB2, AB$2:AB$15)</f>
+        <f t="shared" ref="BH2:BH15" si="12">RANK(AB2, AB$2:AB$15)</f>
         <v>7</v>
       </c>
       <c r="BI2" s="16">
-        <f>RANK(AD2, AD$2:AD$15)</f>
+        <f t="shared" ref="BI2:BI15" si="13">RANK(AD2, AD$2:AD$15)</f>
         <v>8</v>
       </c>
       <c r="BJ2" s="16">
-        <f>RANK(AF2, AF$2:AF$15)</f>
+        <f t="shared" ref="BJ2:BJ15" si="14">RANK(AF2, AF$2:AF$15)</f>
         <v>12</v>
       </c>
       <c r="BK2" s="16">
-        <f>RANK(AH2, AH$2:AH$15)</f>
+        <f t="shared" ref="BK2:BK15" si="15">RANK(AH2, AH$2:AH$15)</f>
         <v>13</v>
       </c>
       <c r="BL2" s="16">
-        <f>RANK(AJ2, AJ$2:AJ$15)</f>
+        <f t="shared" ref="BL2:BL15" si="16">RANK(AJ2, AJ$2:AJ$15)</f>
         <v>7</v>
       </c>
       <c r="BM2" s="16">
@@ -11508,7 +11548,7 @@
         <v>1</v>
       </c>
       <c r="BO2" s="16">
-        <f t="shared" ref="BO2" si="0">RANK(AP2, AP$2:AP$15)</f>
+        <f t="shared" ref="BO2" si="17">RANK(AP2, AP$2:AP$15)</f>
         <v>3</v>
       </c>
     </row>
@@ -11529,7 +11569,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F15" si="1">B3/D3</f>
+        <f t="shared" ref="F3:F15" si="18">B3/D3</f>
         <v>0.99140315999513229</v>
       </c>
       <c r="G3" s="17">
@@ -11548,7 +11588,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="9">
-        <f t="shared" ref="L3:L15" si="2">H3/J3</f>
+        <f t="shared" ref="L3:L15" si="19">H3/J3</f>
         <v>0.99250033258198467</v>
       </c>
       <c r="M3" s="17">
@@ -11567,7 +11607,7 @@
         <v>8</v>
       </c>
       <c r="R3" s="9">
-        <f t="shared" ref="R3:R15" si="3">N3/P3</f>
+        <f t="shared" ref="R3:R15" si="20">N3/P3</f>
         <v>0.84981912249986058</v>
       </c>
       <c r="S3" s="17">
@@ -11586,7 +11626,7 @@
         <v>6</v>
       </c>
       <c r="X3" s="9">
-        <f t="shared" ref="X3:X15" si="4">T3/V3</f>
+        <f t="shared" ref="X3:X15" si="21">T3/V3</f>
         <v>1.0153321584269757</v>
       </c>
       <c r="Y3" s="17">
@@ -11605,7 +11645,7 @@
         <v>14</v>
       </c>
       <c r="AD3" s="9">
-        <f t="shared" ref="AD3:AD15" si="5">Z3/AB3</f>
+        <f t="shared" ref="AD3:AD15" si="22">Z3/AB3</f>
         <v>0.97544347374597851</v>
       </c>
       <c r="AE3" s="17">
@@ -11624,7 +11664,7 @@
         <v>6</v>
       </c>
       <c r="AJ3" s="9">
-        <f t="shared" ref="AJ3:AJ15" si="6">AF3/AH3</f>
+        <f t="shared" ref="AJ3:AJ15" si="23">AF3/AH3</f>
         <v>1.0010137654053997</v>
       </c>
       <c r="AK3" s="17">
@@ -11643,7 +11683,7 @@
         <v>6</v>
       </c>
       <c r="AP3" s="12">
-        <f t="shared" ref="AP3:AP17" si="7">AL3/AN3</f>
+        <f t="shared" ref="AP3:AP15" si="24">AL3/AN3</f>
         <v>1.0153321584269757</v>
       </c>
       <c r="AQ3" s="17">
@@ -11659,87 +11699,87 @@
         <v>0</v>
       </c>
       <c r="AU3" s="16">
-        <f t="shared" ref="AU3:AU15" si="8">RANK(B3, B$2:B$15)</f>
+        <f t="shared" ref="AU3:AU15" si="25">RANK(B3, B$2:B$15)</f>
         <v>11</v>
       </c>
       <c r="AV3" s="16">
-        <f>RANK(D3, D$2:D$15)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="AW3" s="16">
-        <f>RANK(F3, F$2:F$15)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="AX3" s="16">
-        <f>RANK(H3, H$2:H$15)</f>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="AY3" s="16">
-        <f>RANK(J3, J$2:J$15)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="AZ3" s="16">
-        <f>RANK(L3, L$2:L$15)</f>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="BA3" s="16">
-        <f>RANK(N3, N$2:N$15)</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="BB3" s="16">
-        <f>RANK(P3, P$2:P$15)</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="BC3" s="16">
-        <f>RANK(R3, R$2:R$15)</f>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="BD3" s="16">
-        <f>RANK(T3, T$2:T$15)</f>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="BE3" s="16">
-        <f>RANK(V3, V$2:V$15)</f>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="BF3" s="16">
-        <f>RANK(X3, X$2:X$15)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="BG3" s="16">
-        <f>RANK(Z3, Z$2:Z$15)</f>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="BH3" s="16">
-        <f>RANK(AB3, AB$2:AB$15)</f>
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
       <c r="BI3" s="16">
-        <f>RANK(AD3, AD$2:AD$15)</f>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="BJ3" s="16">
-        <f>RANK(AF3, AF$2:AF$15)</f>
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="BK3" s="16">
-        <f>RANK(AH3, AH$2:AH$15)</f>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="BL3" s="16">
-        <f>RANK(AJ3, AJ$2:AJ$15)</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="BM3" s="16">
-        <f t="shared" ref="BM3:BM15" si="9">RANK(AL3, AL$2:AL$15)</f>
+        <f t="shared" ref="BM3:BM15" si="26">RANK(AL3, AL$2:AL$15)</f>
         <v>4</v>
       </c>
       <c r="BN3" s="16">
-        <f t="shared" ref="BN3:BN15" si="10">RANK(AN3, AN$2:AN$15)</f>
+        <f t="shared" ref="BN3:BN15" si="27">RANK(AN3, AN$2:AN$15)</f>
         <v>6</v>
       </c>
       <c r="BO3" s="16">
-        <f t="shared" ref="BO3:BO15" si="11">RANK(AP3, AP$2:AP$15)</f>
+        <f t="shared" ref="BO3:BO15" si="28">RANK(AP3, AP$2:AP$15)</f>
         <v>1</v>
       </c>
     </row>
@@ -11760,7 +11800,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>0.96863086007115118</v>
       </c>
       <c r="G4" s="17">
@@ -11779,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>0.96864211769433151</v>
       </c>
       <c r="M4" s="17">
@@ -11798,7 +11838,7 @@
         <v>4</v>
       </c>
       <c r="R4" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.608605976524305</v>
       </c>
       <c r="S4" s="17">
@@ -11817,7 +11857,7 @@
         <v>1</v>
       </c>
       <c r="X4" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Y4" s="17">
@@ -11836,7 +11876,7 @@
         <v>1</v>
       </c>
       <c r="AD4" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.96864336665401096</v>
       </c>
       <c r="AE4" s="17">
@@ -11855,7 +11895,7 @@
         <v>1</v>
       </c>
       <c r="AJ4" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.99998708855778062</v>
       </c>
       <c r="AK4" s="17">
@@ -11874,7 +11914,7 @@
         <v>1</v>
       </c>
       <c r="AP4" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AQ4" s="17">
@@ -11890,87 +11930,87 @@
         <v>0.1108945783334405</v>
       </c>
       <c r="AU4" s="16">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="AV4" s="16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="16">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="AX4" s="16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AY4" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="16">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="BA4" s="16">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BB4" s="16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BC4" s="16">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="BD4" s="16">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AV4" s="16">
-        <f>RANK(D4, D$2:D$15)</f>
-        <v>1</v>
-      </c>
-      <c r="AW4" s="16">
-        <f>RANK(F4, F$2:F$15)</f>
+      <c r="BE4" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BF4" s="16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BG4" s="16">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BH4" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BI4" s="16">
+        <f t="shared" si="13"/>
+        <v>13</v>
+      </c>
+      <c r="BJ4" s="16">
+        <f t="shared" si="14"/>
+        <v>9</v>
+      </c>
+      <c r="BK4" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="BL4" s="16">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="AX4" s="16">
-        <f>RANK(H4, H$2:H$15)</f>
-        <v>3</v>
-      </c>
-      <c r="AY4" s="16">
-        <f>RANK(J4, J$2:J$15)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ4" s="16">
-        <f>RANK(L4, L$2:L$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BA4" s="16">
-        <f>RANK(N4, N$2:N$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BB4" s="16">
-        <f>RANK(P4, P$2:P$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BC4" s="16">
-        <f>RANK(R4, R$2:R$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BD4" s="16">
-        <f>RANK(T4, T$2:T$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BE4" s="16">
-        <f>RANK(V4, V$2:V$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BF4" s="16">
-        <f>RANK(X4, X$2:X$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BG4" s="16">
-        <f>RANK(Z4, Z$2:Z$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BH4" s="16">
-        <f>RANK(AB4, AB$2:AB$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BI4" s="16">
-        <f>RANK(AD4, AD$2:AD$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BJ4" s="16">
-        <f>RANK(AF4, AF$2:AF$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BK4" s="16">
-        <f>RANK(AH4, AH$2:AH$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BL4" s="16">
-        <f>RANK(AJ4, AJ$2:AJ$15)</f>
-        <v>11</v>
-      </c>
       <c r="BM4" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="BN4" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BO4" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
     </row>
@@ -11991,7 +12031,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>0.99311151219118476</v>
       </c>
       <c r="G5" s="17">
@@ -12010,7 +12050,7 @@
         <v>9</v>
       </c>
       <c r="L5" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>0.99338307645824186</v>
       </c>
       <c r="M5" s="17">
@@ -12029,7 +12069,7 @@
         <v>14</v>
       </c>
       <c r="R5" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>-6.9140188658790613</v>
       </c>
       <c r="S5" s="17">
@@ -12048,7 +12088,7 @@
         <v>13</v>
       </c>
       <c r="X5" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.96373063700530259</v>
       </c>
       <c r="Y5" s="17">
@@ -12067,7 +12107,7 @@
         <v>9</v>
       </c>
       <c r="AD5" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.98562649181116546</v>
       </c>
       <c r="AE5" s="17">
@@ -12086,7 +12126,7 @@
         <v>10</v>
       </c>
       <c r="AJ5" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.0455143134726779</v>
       </c>
       <c r="AK5" s="17">
@@ -12105,7 +12145,7 @@
         <v>13</v>
       </c>
       <c r="AP5" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0.96373063700530259</v>
       </c>
       <c r="AQ5" s="17">
@@ -12121,87 +12161,87 @@
         <v>0</v>
       </c>
       <c r="AU5" s="16">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="AV5" s="16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AW5" s="16">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AX5" s="16">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AY5" s="16">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AZ5" s="16">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="BA5" s="16">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="BB5" s="16">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="BC5" s="16">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="BD5" s="16">
         <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="AV5" s="16">
-        <f>RANK(D5, D$2:D$15)</f>
-        <v>13</v>
-      </c>
-      <c r="AW5" s="16">
-        <f>RANK(F5, F$2:F$15)</f>
-        <v>9</v>
-      </c>
-      <c r="AX5" s="16">
-        <f>RANK(H5, H$2:H$15)</f>
-        <v>9</v>
-      </c>
-      <c r="AY5" s="16">
-        <f>RANK(J5, J$2:J$15)</f>
-        <v>9</v>
-      </c>
-      <c r="AZ5" s="16">
-        <f>RANK(L5, L$2:L$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BA5" s="16">
-        <f>RANK(N5, N$2:N$15)</f>
-        <v>8</v>
-      </c>
-      <c r="BB5" s="16">
-        <f>RANK(P5, P$2:P$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BC5" s="16">
-        <f>RANK(R5, R$2:R$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BD5" s="16">
-        <f>RANK(T5, T$2:T$15)</f>
-        <v>13</v>
-      </c>
       <c r="BE5" s="16">
-        <f>RANK(V5, V$2:V$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BF5" s="16">
-        <f>RANK(X5, X$2:X$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BG5" s="16">
-        <f>RANK(Z5, Z$2:Z$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BH5" s="16">
-        <f>RANK(AB5, AB$2:AB$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BI5" s="16">
-        <f>RANK(AD5, AD$2:AD$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BJ5" s="16">
-        <f>RANK(AF5, AF$2:AF$15)</f>
-        <v>6</v>
-      </c>
-      <c r="BK5" s="16">
-        <f>RANK(AH5, AH$2:AH$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BL5" s="16">
-        <f>RANK(AJ5, AJ$2:AJ$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BM5" s="16">
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
+      <c r="BF5" s="16">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="BG5" s="16">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="BH5" s="16">
+        <f t="shared" si="12"/>
+        <v>9</v>
+      </c>
+      <c r="BI5" s="16">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="BJ5" s="16">
+        <f t="shared" si="14"/>
+        <v>6</v>
+      </c>
+      <c r="BK5" s="16">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="BL5" s="16">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="BM5" s="16">
+        <f t="shared" si="26"/>
+        <v>13</v>
+      </c>
       <c r="BN5" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="BO5" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>9</v>
       </c>
     </row>
@@ -12222,7 +12262,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G6" s="17">
@@ -12241,7 +12281,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M6" s="17">
@@ -12260,7 +12300,7 @@
         <v>9</v>
       </c>
       <c r="R6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S6" s="17">
@@ -12279,7 +12319,7 @@
         <v>11</v>
       </c>
       <c r="X6" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Y6" s="17">
@@ -12298,7 +12338,7 @@
         <v>1</v>
       </c>
       <c r="AD6" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE6" s="17">
@@ -12317,7 +12357,7 @@
         <v>14</v>
       </c>
       <c r="AJ6" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AK6" s="17">
@@ -12352,87 +12392,87 @@
         <v>0</v>
       </c>
       <c r="AU6" s="16">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="AV6" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AW6" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AX6" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AY6" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BA6" s="16">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="BB6" s="16">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="BC6" s="16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BD6" s="16">
         <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AV6" s="16">
-        <f>RANK(D6, D$2:D$15)</f>
-        <v>7</v>
-      </c>
-      <c r="AW6" s="16">
-        <f>RANK(F6, F$2:F$15)</f>
-        <v>2</v>
-      </c>
-      <c r="AX6" s="16">
-        <f>RANK(H6, H$2:H$15)</f>
-        <v>1</v>
-      </c>
-      <c r="AY6" s="16">
-        <f>RANK(J6, J$2:J$15)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="16">
-        <f>RANK(L6, L$2:L$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BA6" s="16">
-        <f>RANK(N6, N$2:N$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BB6" s="16">
-        <f>RANK(P6, P$2:P$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BC6" s="16">
-        <f>RANK(R6, R$2:R$15)</f>
-        <v>5</v>
-      </c>
-      <c r="BD6" s="16">
-        <f>RANK(T6, T$2:T$15)</f>
         <v>11</v>
       </c>
       <c r="BE6" s="16">
-        <f>RANK(V6, V$2:V$15)</f>
-        <v>11</v>
-      </c>
-      <c r="BF6" s="16">
-        <f>RANK(X6, X$2:X$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BG6" s="16">
-        <f>RANK(Z6, Z$2:Z$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BH6" s="16">
-        <f>RANK(AB6, AB$2:AB$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BI6" s="16">
-        <f>RANK(AD6, AD$2:AD$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BJ6" s="16">
-        <f>RANK(AF6, AF$2:AF$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BK6" s="16">
-        <f>RANK(AH6, AH$2:AH$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BL6" s="16">
-        <f>RANK(AJ6, AJ$2:AJ$15)</f>
-        <v>7</v>
-      </c>
-      <c r="BM6" s="16">
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
+      <c r="BF6" s="16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BG6" s="16">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BH6" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BI6" s="16">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="BJ6" s="16">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="BK6" s="16">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="BL6" s="16">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="BM6" s="16">
+        <f t="shared" si="26"/>
+        <v>11</v>
+      </c>
       <c r="BN6" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="BO6" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
     </row>
@@ -12453,7 +12493,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>0.99625353593350019</v>
       </c>
       <c r="G7" s="17">
@@ -12472,7 +12512,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1.0019628755203458</v>
       </c>
       <c r="M7" s="17">
@@ -12491,7 +12531,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.9992063481851492</v>
       </c>
       <c r="S7" s="17">
@@ -12510,7 +12550,7 @@
         <v>14</v>
       </c>
       <c r="X7" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.98200163986333167</v>
       </c>
       <c r="Y7" s="17">
@@ -12529,7 +12569,7 @@
         <v>8</v>
       </c>
       <c r="AD7" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>1.0019628438095858</v>
       </c>
       <c r="AE7" s="17">
@@ -12548,7 +12588,7 @@
         <v>7</v>
       </c>
       <c r="AJ7" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.0125256784585801</v>
       </c>
       <c r="AK7" s="17">
@@ -12567,7 +12607,7 @@
         <v>14</v>
       </c>
       <c r="AP7" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0.98200163986333167</v>
       </c>
       <c r="AQ7" s="17">
@@ -12583,87 +12623,87 @@
         <v>0</v>
       </c>
       <c r="AU7" s="16">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="AV7" s="16">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AW7" s="16">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AX7" s="16">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AY7" s="16">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AZ7" s="16">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="BA7" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BB7" s="16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BC7" s="16">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="BD7" s="16">
         <f t="shared" si="8"/>
         <v>14</v>
       </c>
-      <c r="AV7" s="16">
-        <f>RANK(D7, D$2:D$15)</f>
-        <v>14</v>
-      </c>
-      <c r="AW7" s="16">
-        <f>RANK(F7, F$2:F$15)</f>
-        <v>7</v>
-      </c>
-      <c r="AX7" s="16">
-        <f>RANK(H7, H$2:H$15)</f>
-        <v>8</v>
-      </c>
-      <c r="AY7" s="16">
-        <f>RANK(J7, J$2:J$15)</f>
-        <v>8</v>
-      </c>
-      <c r="AZ7" s="16">
-        <f>RANK(L7, L$2:L$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BA7" s="16">
-        <f>RANK(N7, N$2:N$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BB7" s="16">
-        <f>RANK(P7, P$2:P$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BC7" s="16">
-        <f>RANK(R7, R$2:R$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BD7" s="16">
-        <f>RANK(T7, T$2:T$15)</f>
-        <v>14</v>
-      </c>
       <c r="BE7" s="16">
-        <f>RANK(V7, V$2:V$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BF7" s="16">
-        <f>RANK(X7, X$2:X$15)</f>
-        <v>8</v>
-      </c>
-      <c r="BG7" s="16">
-        <f>RANK(Z7, Z$2:Z$15)</f>
-        <v>8</v>
-      </c>
-      <c r="BH7" s="16">
-        <f>RANK(AB7, AB$2:AB$15)</f>
-        <v>8</v>
-      </c>
-      <c r="BI7" s="16">
-        <f>RANK(AD7, AD$2:AD$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BJ7" s="16">
-        <f>RANK(AF7, AF$2:AF$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BK7" s="16">
-        <f>RANK(AH7, AH$2:AH$15)</f>
-        <v>7</v>
-      </c>
-      <c r="BL7" s="16">
-        <f>RANK(AJ7, AJ$2:AJ$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BM7" s="16">
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
+      <c r="BF7" s="16">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="BG7" s="16">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="BH7" s="16">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="BI7" s="16">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="BJ7" s="16">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BK7" s="16">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="BL7" s="16">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="BM7" s="16">
+        <f t="shared" si="26"/>
+        <v>14</v>
+      </c>
       <c r="BN7" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="BO7" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>8</v>
       </c>
     </row>
@@ -12684,7 +12724,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>0.99625304343465126</v>
       </c>
       <c r="G8" s="17">
@@ -12703,7 +12743,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1.0224310108051855</v>
       </c>
       <c r="M8" s="17">
@@ -12722,7 +12762,7 @@
         <v>2</v>
       </c>
       <c r="R8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.90748171588943194</v>
       </c>
       <c r="S8" s="17">
@@ -12741,7 +12781,7 @@
         <v>8</v>
       </c>
       <c r="X8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.9422187691400673</v>
       </c>
       <c r="Y8" s="17">
@@ -12760,7 +12800,7 @@
         <v>12</v>
       </c>
       <c r="AD8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>1.0224308075889197</v>
       </c>
       <c r="AE8" s="17">
@@ -12779,7 +12819,7 @@
         <v>8</v>
       </c>
       <c r="AJ8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.0341510634235824</v>
       </c>
       <c r="AK8" s="17">
@@ -12798,7 +12838,7 @@
         <v>8</v>
       </c>
       <c r="AP8" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0.9422187691400673</v>
       </c>
       <c r="AQ8" s="17">
@@ -12814,87 +12854,87 @@
         <v>0</v>
       </c>
       <c r="AU8" s="16">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="AV8" s="16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AW8" s="16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AX8" s="16">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="AY8" s="16">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="AZ8" s="16">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BA8" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BB8" s="16">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BC8" s="16">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="BD8" s="16">
         <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="BE8" s="16">
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="AV8" s="16">
-        <f>RANK(D8, D$2:D$15)</f>
+      <c r="BF8" s="16">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="BG8" s="16">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="BH8" s="16">
+        <f t="shared" si="12"/>
+        <v>12</v>
+      </c>
+      <c r="BI8" s="16">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="BJ8" s="16">
+        <f t="shared" si="14"/>
+        <v>7</v>
+      </c>
+      <c r="BK8" s="16">
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="AW8" s="16">
-        <f>RANK(F8, F$2:F$15)</f>
+      <c r="BL8" s="16">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="BM8" s="16">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="BN8" s="16">
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
-      <c r="AX8" s="16">
-        <f>RANK(H8, H$2:H$15)</f>
-        <v>12</v>
-      </c>
-      <c r="AY8" s="16">
-        <f>RANK(J8, J$2:J$15)</f>
-        <v>12</v>
-      </c>
-      <c r="AZ8" s="16">
-        <f>RANK(L8, L$2:L$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BA8" s="16">
-        <f>RANK(N8, N$2:N$15)</f>
-        <v>6</v>
-      </c>
-      <c r="BB8" s="16">
-        <f>RANK(P8, P$2:P$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BC8" s="16">
-        <f>RANK(R8, R$2:R$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BD8" s="16">
-        <f>RANK(T8, T$2:T$15)</f>
-        <v>7</v>
-      </c>
-      <c r="BE8" s="16">
-        <f>RANK(V8, V$2:V$15)</f>
-        <v>8</v>
-      </c>
-      <c r="BF8" s="16">
-        <f>RANK(X8, X$2:X$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BG8" s="16">
-        <f>RANK(Z8, Z$2:Z$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BH8" s="16">
-        <f>RANK(AB8, AB$2:AB$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BI8" s="16">
-        <f>RANK(AD8, AD$2:AD$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BJ8" s="16">
-        <f>RANK(AF8, AF$2:AF$15)</f>
-        <v>7</v>
-      </c>
-      <c r="BK8" s="16">
-        <f>RANK(AH8, AH$2:AH$15)</f>
-        <v>8</v>
-      </c>
-      <c r="BL8" s="16">
-        <f>RANK(AJ8, AJ$2:AJ$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BM8" s="16">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="BN8" s="16">
-        <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
       <c r="BO8" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>10</v>
       </c>
     </row>
@@ -12915,7 +12955,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G9" s="17">
@@ -12934,7 +12974,7 @@
         <v>10</v>
       </c>
       <c r="L9" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M9" s="17">
@@ -12953,7 +12993,7 @@
         <v>4</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S9" s="17">
@@ -12972,7 +13012,7 @@
         <v>7</v>
       </c>
       <c r="X9" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Y9" s="17">
@@ -12991,7 +13031,7 @@
         <v>10</v>
       </c>
       <c r="AD9" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE9" s="17">
@@ -13010,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="AJ9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AK9" s="17">
@@ -13029,7 +13069,7 @@
         <v>7</v>
       </c>
       <c r="AP9" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AQ9" s="17">
@@ -13045,87 +13085,87 @@
         <v>0</v>
       </c>
       <c r="AU9" s="16">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="AV9" s="16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AW9" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AX9" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AY9" s="16">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AZ9" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BA9" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BB9" s="16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BC9" s="16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BD9" s="16">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="AV9" s="16">
-        <f>RANK(D9, D$2:D$15)</f>
+      <c r="BE9" s="16">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="BF9" s="16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BG9" s="16">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="BH9" s="16">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="BI9" s="16">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="BJ9" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BK9" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="BL9" s="16">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="BM9" s="16">
+        <f t="shared" si="26"/>
         <v>6</v>
       </c>
-      <c r="AW9" s="16">
-        <f>RANK(F9, F$2:F$15)</f>
-        <v>2</v>
-      </c>
-      <c r="AX9" s="16">
-        <f>RANK(H9, H$2:H$15)</f>
-        <v>10</v>
-      </c>
-      <c r="AY9" s="16">
-        <f>RANK(J9, J$2:J$15)</f>
-        <v>10</v>
-      </c>
-      <c r="AZ9" s="16">
-        <f>RANK(L9, L$2:L$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BA9" s="16">
-        <f>RANK(N9, N$2:N$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BB9" s="16">
-        <f>RANK(P9, P$2:P$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BC9" s="16">
-        <f>RANK(R9, R$2:R$15)</f>
-        <v>5</v>
-      </c>
-      <c r="BD9" s="16">
-        <f>RANK(T9, T$2:T$15)</f>
-        <v>6</v>
-      </c>
-      <c r="BE9" s="16">
-        <f>RANK(V9, V$2:V$15)</f>
+      <c r="BN9" s="16">
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
-      <c r="BF9" s="16">
-        <f>RANK(X9, X$2:X$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BG9" s="16">
-        <f>RANK(Z9, Z$2:Z$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BH9" s="16">
-        <f>RANK(AB9, AB$2:AB$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BI9" s="16">
-        <f>RANK(AD9, AD$2:AD$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BJ9" s="16">
-        <f>RANK(AF9, AF$2:AF$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BK9" s="16">
-        <f>RANK(AH9, AH$2:AH$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BL9" s="16">
-        <f>RANK(AJ9, AJ$2:AJ$15)</f>
-        <v>7</v>
-      </c>
-      <c r="BM9" s="16">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="BN9" s="16">
-        <f t="shared" si="10"/>
-        <v>7</v>
-      </c>
       <c r="BO9" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
     </row>
@@ -13146,7 +13186,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>1.0000024251717936</v>
       </c>
       <c r="G10" s="17">
@@ -13165,7 +13205,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>0.99999667024327255</v>
       </c>
       <c r="M10" s="17">
@@ -13184,7 +13224,7 @@
         <v>12</v>
       </c>
       <c r="R10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.7669112122478641</v>
       </c>
       <c r="S10" s="17">
@@ -13203,7 +13243,7 @@
         <v>10</v>
       </c>
       <c r="X10" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>1.0000014556811925</v>
       </c>
       <c r="Y10" s="17">
@@ -13222,7 +13262,7 @@
         <v>11</v>
       </c>
       <c r="AD10" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.99999276404231119</v>
       </c>
       <c r="AE10" s="17">
@@ -13241,7 +13281,7 @@
         <v>5</v>
       </c>
       <c r="AJ10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.0000082055062529</v>
       </c>
       <c r="AK10" s="17">
@@ -13260,7 +13300,7 @@
         <v>10</v>
       </c>
       <c r="AP10" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>1.0000014556811925</v>
       </c>
       <c r="AQ10" s="17">
@@ -13276,87 +13316,87 @@
         <v>0</v>
       </c>
       <c r="AU10" s="16">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="AV10" s="16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="AW10" s="16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AX10" s="16">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="AY10" s="16">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="AZ10" s="16">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="BA10" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BB10" s="16">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="BC10" s="16">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="BD10" s="16">
         <f t="shared" si="8"/>
-        <v>12</v>
-      </c>
-      <c r="AV10" s="16">
-        <f>RANK(D10, D$2:D$15)</f>
-        <v>12</v>
-      </c>
-      <c r="AW10" s="16">
-        <f>RANK(F10, F$2:F$15)</f>
-        <v>1</v>
-      </c>
-      <c r="AX10" s="16">
-        <f>RANK(H10, H$2:H$15)</f>
-        <v>13</v>
-      </c>
-      <c r="AY10" s="16">
-        <f>RANK(J10, J$2:J$15)</f>
-        <v>11</v>
-      </c>
-      <c r="AZ10" s="16">
-        <f>RANK(L10, L$2:L$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BA10" s="16">
-        <f>RANK(N10, N$2:N$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BB10" s="16">
-        <f>RANK(P10, P$2:P$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BC10" s="16">
-        <f>RANK(R10, R$2:R$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BD10" s="16">
-        <f>RANK(T10, T$2:T$15)</f>
         <v>10</v>
       </c>
       <c r="BE10" s="16">
-        <f>RANK(V10, V$2:V$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BF10" s="16">
-        <f>RANK(X10, X$2:X$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BG10" s="16">
-        <f>RANK(Z10, Z$2:Z$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BH10" s="16">
-        <f>RANK(AB10, AB$2:AB$15)</f>
-        <v>11</v>
-      </c>
-      <c r="BI10" s="16">
-        <f>RANK(AD10, AD$2:AD$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BJ10" s="16">
-        <f>RANK(AF10, AF$2:AF$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BK10" s="16">
-        <f>RANK(AH10, AH$2:AH$15)</f>
-        <v>5</v>
-      </c>
-      <c r="BL10" s="16">
-        <f>RANK(AJ10, AJ$2:AJ$15)</f>
-        <v>6</v>
-      </c>
-      <c r="BM10" s="16">
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
+      <c r="BF10" s="16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="BG10" s="16">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="BH10" s="16">
+        <f t="shared" si="12"/>
+        <v>11</v>
+      </c>
+      <c r="BI10" s="16">
+        <f t="shared" si="13"/>
+        <v>9</v>
+      </c>
+      <c r="BJ10" s="16">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BK10" s="16">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="BL10" s="16">
+        <f t="shared" si="16"/>
+        <v>6</v>
+      </c>
+      <c r="BM10" s="16">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
       <c r="BN10" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="BO10" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>2</v>
       </c>
     </row>
@@ -13377,7 +13417,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>0.78717166291680629</v>
       </c>
       <c r="G11" s="17">
@@ -13396,7 +13436,7 @@
         <v>5</v>
       </c>
       <c r="L11" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>0.97016710202602507</v>
       </c>
       <c r="M11" s="17">
@@ -13415,7 +13455,7 @@
         <v>13</v>
       </c>
       <c r="R11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>2.2438295661314349</v>
       </c>
       <c r="S11" s="17">
@@ -13434,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="X11" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.83769474231752128</v>
       </c>
       <c r="Y11" s="17">
@@ -13453,7 +13493,7 @@
         <v>5</v>
       </c>
       <c r="AD11" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.96712617936533296</v>
       </c>
       <c r="AE11" s="17">
@@ -13472,7 +13512,7 @@
         <v>12</v>
       </c>
       <c r="AJ11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.97162912072884766</v>
       </c>
       <c r="AK11" s="17">
@@ -13491,7 +13531,7 @@
         <v>1</v>
       </c>
       <c r="AP11" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0.83769474231752128</v>
       </c>
       <c r="AQ11" s="17">
@@ -13507,87 +13547,87 @@
         <v>0.1963696507143772</v>
       </c>
       <c r="AU11" s="16">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="AV11" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AW11" s="16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="AX11" s="16">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AY11" s="16">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AZ11" s="16">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="BA11" s="16">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="BB11" s="16">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="BC11" s="16">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BD11" s="16">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="AV11" s="16">
-        <f>RANK(D11, D$2:D$15)</f>
+      <c r="BE11" s="16">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BF11" s="16">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="BG11" s="16">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="BH11" s="16">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="BI11" s="16">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="BJ11" s="16">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="BK11" s="16">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="BL11" s="16">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="BM11" s="16">
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
-      <c r="AW11" s="16">
-        <f>RANK(F11, F$2:F$15)</f>
-        <v>13</v>
-      </c>
-      <c r="AX11" s="16">
-        <f>RANK(H11, H$2:H$15)</f>
-        <v>6</v>
-      </c>
-      <c r="AY11" s="16">
-        <f>RANK(J11, J$2:J$15)</f>
-        <v>5</v>
-      </c>
-      <c r="AZ11" s="16">
-        <f>RANK(L11, L$2:L$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BA11" s="16">
-        <f>RANK(N11, N$2:N$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BB11" s="16">
-        <f>RANK(P11, P$2:P$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BC11" s="16">
-        <f>RANK(R11, R$2:R$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BD11" s="16">
-        <f>RANK(T11, T$2:T$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BE11" s="16">
-        <f>RANK(V11, V$2:V$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BF11" s="16">
-        <f>RANK(X11, X$2:X$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BG11" s="16">
-        <f>RANK(Z11, Z$2:Z$15)</f>
-        <v>7</v>
-      </c>
-      <c r="BH11" s="16">
-        <f>RANK(AB11, AB$2:AB$15)</f>
-        <v>5</v>
-      </c>
-      <c r="BI11" s="16">
-        <f>RANK(AD11, AD$2:AD$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BJ11" s="16">
-        <f>RANK(AF11, AF$2:AF$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BK11" s="16">
-        <f>RANK(AH11, AH$2:AH$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BL11" s="16">
-        <f>RANK(AJ11, AJ$2:AJ$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BM11" s="16">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
       <c r="BN11" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="BO11" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>13</v>
       </c>
     </row>
@@ -13608,7 +13648,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="G12" s="17">
@@ -13627,7 +13667,7 @@
         <v>7</v>
       </c>
       <c r="L12" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M12" s="17">
@@ -13646,7 +13686,7 @@
         <v>4</v>
       </c>
       <c r="R12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="S12" s="17">
@@ -13665,7 +13705,7 @@
         <v>12</v>
       </c>
       <c r="X12" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Y12" s="17">
@@ -13684,7 +13724,7 @@
         <v>6</v>
       </c>
       <c r="AD12" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE12" s="17">
@@ -13703,7 +13743,7 @@
         <v>4</v>
       </c>
       <c r="AJ12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AK12" s="17">
@@ -13722,7 +13762,7 @@
         <v>12</v>
       </c>
       <c r="AP12" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="AQ12" s="17">
@@ -13738,87 +13778,87 @@
         <v>0</v>
       </c>
       <c r="AU12" s="16">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="AV12" s="16">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AW12" s="16">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AX12" s="16">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AY12" s="16">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AZ12" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BA12" s="16">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BB12" s="16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BC12" s="16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="BD12" s="16">
         <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="AV12" s="16">
-        <f>RANK(D12, D$2:D$15)</f>
-        <v>10</v>
-      </c>
-      <c r="AW12" s="16">
-        <f>RANK(F12, F$2:F$15)</f>
-        <v>2</v>
-      </c>
-      <c r="AX12" s="16">
-        <f>RANK(H12, H$2:H$15)</f>
-        <v>7</v>
-      </c>
-      <c r="AY12" s="16">
-        <f>RANK(J12, J$2:J$15)</f>
-        <v>7</v>
-      </c>
-      <c r="AZ12" s="16">
-        <f>RANK(L12, L$2:L$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BA12" s="16">
-        <f>RANK(N12, N$2:N$15)</f>
-        <v>2</v>
-      </c>
-      <c r="BB12" s="16">
-        <f>RANK(P12, P$2:P$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BC12" s="16">
-        <f>RANK(R12, R$2:R$15)</f>
-        <v>5</v>
-      </c>
-      <c r="BD12" s="16">
-        <f>RANK(T12, T$2:T$15)</f>
         <v>12</v>
       </c>
       <c r="BE12" s="16">
-        <f>RANK(V12, V$2:V$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BF12" s="16">
-        <f>RANK(X12, X$2:X$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BG12" s="16">
-        <f>RANK(Z12, Z$2:Z$15)</f>
-        <v>5</v>
-      </c>
-      <c r="BH12" s="16">
-        <f>RANK(AB12, AB$2:AB$15)</f>
-        <v>6</v>
-      </c>
-      <c r="BI12" s="16">
-        <f>RANK(AD12, AD$2:AD$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BJ12" s="16">
-        <f>RANK(AF12, AF$2:AF$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BK12" s="16">
-        <f>RANK(AH12, AH$2:AH$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BL12" s="16">
-        <f>RANK(AJ12, AJ$2:AJ$15)</f>
-        <v>7</v>
-      </c>
-      <c r="BM12" s="16">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
+      <c r="BF12" s="16">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="BG12" s="16">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="BH12" s="16">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="BI12" s="16">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="BJ12" s="16">
+        <f t="shared" si="14"/>
+        <v>3</v>
+      </c>
+      <c r="BK12" s="16">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="BL12" s="16">
+        <f t="shared" si="16"/>
+        <v>7</v>
+      </c>
+      <c r="BM12" s="16">
+        <f t="shared" si="26"/>
+        <v>12</v>
+      </c>
       <c r="BN12" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="BO12" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>3</v>
       </c>
     </row>
@@ -13839,7 +13879,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>0.70134472864826058</v>
       </c>
       <c r="G13" s="17">
@@ -13858,7 +13898,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>0.96211392549078067</v>
       </c>
       <c r="M13" s="17">
@@ -13877,7 +13917,7 @@
         <v>4</v>
       </c>
       <c r="R13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.76311293872938457</v>
       </c>
       <c r="S13" s="17">
@@ -13896,7 +13936,7 @@
         <v>4</v>
       </c>
       <c r="X13" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.77764425535062065</v>
       </c>
       <c r="Y13" s="17">
@@ -13915,7 +13955,7 @@
         <v>1</v>
       </c>
       <c r="AD13" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>0.96970117785552334</v>
       </c>
       <c r="AE13" s="17">
@@ -13934,7 +13974,7 @@
         <v>1</v>
       </c>
       <c r="AJ13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.9300635962306576</v>
       </c>
       <c r="AK13" s="17">
@@ -13953,7 +13993,7 @@
         <v>4</v>
       </c>
       <c r="AP13" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0.77764425535062065</v>
       </c>
       <c r="AQ13" s="17">
@@ -13969,87 +14009,87 @@
         <v>1.177438257787127</v>
       </c>
       <c r="AU13" s="16">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="AV13" s="16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AW13" s="16">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="AX13" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AY13" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="16">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="BA13" s="16">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="BB13" s="16">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="BC13" s="16">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="BD13" s="16">
         <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="BE13" s="16">
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="AV13" s="16">
-        <f>RANK(D13, D$2:D$15)</f>
-        <v>2</v>
-      </c>
-      <c r="AW13" s="16">
-        <f>RANK(F13, F$2:F$15)</f>
+      <c r="BF13" s="16">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="AX13" s="16">
-        <f>RANK(H13, H$2:H$15)</f>
+      <c r="BG13" s="16">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BH13" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BI13" s="16">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="BJ13" s="16">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="BK13" s="16">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="BL13" s="16">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="BM13" s="16">
+        <f t="shared" si="26"/>
+        <v>5</v>
+      </c>
+      <c r="BN13" s="16">
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
-      <c r="AY13" s="16">
-        <f>RANK(J13, J$2:J$15)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ13" s="16">
-        <f>RANK(L13, L$2:L$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BA13" s="16">
-        <f>RANK(N13, N$2:N$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BB13" s="16">
-        <f>RANK(P13, P$2:P$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BC13" s="16">
-        <f>RANK(R13, R$2:R$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BD13" s="16">
-        <f>RANK(T13, T$2:T$15)</f>
-        <v>5</v>
-      </c>
-      <c r="BE13" s="16">
-        <f>RANK(V13, V$2:V$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BF13" s="16">
-        <f>RANK(X13, X$2:X$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BG13" s="16">
-        <f>RANK(Z13, Z$2:Z$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BH13" s="16">
-        <f>RANK(AB13, AB$2:AB$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BI13" s="16">
-        <f>RANK(AD13, AD$2:AD$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BJ13" s="16">
-        <f>RANK(AF13, AF$2:AF$15)</f>
-        <v>11</v>
-      </c>
-      <c r="BK13" s="16">
-        <f>RANK(AH13, AH$2:AH$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BL13" s="16">
-        <f>RANK(AJ13, AJ$2:AJ$15)</f>
-        <v>14</v>
-      </c>
-      <c r="BM13" s="16">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="BN13" s="16">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
       <c r="BO13" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
     </row>
@@ -14070,7 +14110,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>0.88660589257187283</v>
       </c>
       <c r="G14" s="17">
@@ -14089,7 +14129,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="M14" s="17">
@@ -14108,7 +14148,7 @@
         <v>10</v>
       </c>
       <c r="R14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>1.0000135518076079</v>
       </c>
       <c r="S14" s="17">
@@ -14127,7 +14167,7 @@
         <v>9</v>
       </c>
       <c r="X14" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.90751141963504323</v>
       </c>
       <c r="Y14" s="17">
@@ -14146,7 +14186,7 @@
         <v>1</v>
       </c>
       <c r="AD14" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="AE14" s="17">
@@ -14165,7 +14205,7 @@
         <v>9</v>
       </c>
       <c r="AJ14" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>0.97696389641953207</v>
       </c>
       <c r="AK14" s="17">
@@ -14184,7 +14224,7 @@
         <v>9</v>
       </c>
       <c r="AP14" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0.90751141963504323</v>
       </c>
       <c r="AQ14" s="17">
@@ -14200,87 +14240,87 @@
         <v>0.1947335281179329</v>
       </c>
       <c r="AU14" s="16">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="AV14" s="16">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AW14" s="16">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="AX14" s="16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AY14" s="16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AZ14" s="16">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BA14" s="16">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="BB14" s="16">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="BC14" s="16">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="BD14" s="16">
         <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
-      <c r="AV14" s="16">
-        <f>RANK(D14, D$2:D$15)</f>
-        <v>5</v>
-      </c>
-      <c r="AW14" s="16">
-        <f>RANK(F14, F$2:F$15)</f>
-        <v>12</v>
-      </c>
-      <c r="AX14" s="16">
-        <f>RANK(H14, H$2:H$15)</f>
-        <v>1</v>
-      </c>
-      <c r="AY14" s="16">
-        <f>RANK(J14, J$2:J$15)</f>
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="16">
-        <f>RANK(L14, L$2:L$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BA14" s="16">
-        <f>RANK(N14, N$2:N$15)</f>
-        <v>11</v>
-      </c>
-      <c r="BB14" s="16">
-        <f>RANK(P14, P$2:P$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BC14" s="16">
-        <f>RANK(R14, R$2:R$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BD14" s="16">
-        <f>RANK(T14, T$2:T$15)</f>
         <v>9</v>
       </c>
       <c r="BE14" s="16">
-        <f>RANK(V14, V$2:V$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BF14" s="16">
-        <f>RANK(X14, X$2:X$15)</f>
-        <v>11</v>
-      </c>
-      <c r="BG14" s="16">
-        <f>RANK(Z14, Z$2:Z$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BH14" s="16">
-        <f>RANK(AB14, AB$2:AB$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BI14" s="16">
-        <f>RANK(AD14, AD$2:AD$15)</f>
-        <v>4</v>
-      </c>
-      <c r="BJ14" s="16">
-        <f>RANK(AF14, AF$2:AF$15)</f>
-        <v>10</v>
-      </c>
-      <c r="BK14" s="16">
-        <f>RANK(AH14, AH$2:AH$15)</f>
-        <v>9</v>
-      </c>
-      <c r="BL14" s="16">
-        <f>RANK(AJ14, AJ$2:AJ$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BM14" s="16">
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
+      <c r="BF14" s="16">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="BG14" s="16">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BH14" s="16">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BI14" s="16">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="BJ14" s="16">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="BK14" s="16">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BL14" s="16">
+        <f t="shared" si="16"/>
+        <v>12</v>
+      </c>
+      <c r="BM14" s="16">
+        <f t="shared" si="26"/>
+        <v>9</v>
+      </c>
       <c r="BN14" s="16">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="BO14" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>11</v>
       </c>
     </row>
@@ -14301,7 +14341,7 @@
         <v>9</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>0.99625516032230177</v>
       </c>
       <c r="G15" s="17">
@@ -14320,7 +14360,7 @@
         <v>13</v>
       </c>
       <c r="L15" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="19"/>
         <v>1.062649184344038</v>
       </c>
       <c r="M15" s="17">
@@ -14339,7 +14379,7 @@
         <v>3</v>
       </c>
       <c r="R15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="20"/>
         <v>0.85420200896225562</v>
       </c>
       <c r="S15" s="17">
@@ -14358,7 +14398,7 @@
         <v>5</v>
       </c>
       <c r="X15" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0.86844014784454837</v>
       </c>
       <c r="Y15" s="17">
@@ -14377,7 +14417,7 @@
         <v>13</v>
       </c>
       <c r="AD15" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>1.0626489212455696</v>
       </c>
       <c r="AE15" s="17">
@@ -14396,7 +14436,7 @@
         <v>11</v>
       </c>
       <c r="AJ15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>1.0795453364868068</v>
       </c>
       <c r="AK15" s="17">
@@ -14415,7 +14455,7 @@
         <v>5</v>
       </c>
       <c r="AP15" s="12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="24"/>
         <v>0.86844014784454837</v>
       </c>
       <c r="AQ15" s="17">
@@ -14431,87 +14471,87 @@
         <v>0</v>
       </c>
       <c r="AU15" s="16">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="AV15" s="16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="AW15" s="16">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AX15" s="16">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="AY15" s="16">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="AZ15" s="16">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BA15" s="16">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="BB15" s="16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BC15" s="16">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="BD15" s="16">
         <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
-      <c r="AV15" s="16">
-        <f>RANK(D15, D$2:D$15)</f>
-        <v>9</v>
-      </c>
-      <c r="AW15" s="16">
-        <f>RANK(F15, F$2:F$15)</f>
-        <v>6</v>
-      </c>
-      <c r="AX15" s="16">
-        <f>RANK(H15, H$2:H$15)</f>
+        <v>8</v>
+      </c>
+      <c r="BE15" s="16">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="BF15" s="16">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="BG15" s="16">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="AY15" s="16">
-        <f>RANK(J15, J$2:J$15)</f>
+      <c r="BH15" s="16">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="AZ15" s="16">
-        <f>RANK(L15, L$2:L$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BA15" s="16">
-        <f>RANK(N15, N$2:N$15)</f>
-        <v>7</v>
-      </c>
-      <c r="BB15" s="16">
-        <f>RANK(P15, P$2:P$15)</f>
-        <v>3</v>
-      </c>
-      <c r="BC15" s="16">
-        <f>RANK(R15, R$2:R$15)</f>
+      <c r="BI15" s="16">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="16">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+      <c r="BK15" s="16">
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
-      <c r="BD15" s="16">
-        <f>RANK(T15, T$2:T$15)</f>
+      <c r="BL15" s="16">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BM15" s="16">
+        <f t="shared" si="26"/>
         <v>8</v>
       </c>
-      <c r="BE15" s="16">
-        <f>RANK(V15, V$2:V$15)</f>
+      <c r="BN15" s="16">
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
-      <c r="BF15" s="16">
-        <f>RANK(X15, X$2:X$15)</f>
-        <v>12</v>
-      </c>
-      <c r="BG15" s="16">
-        <f>RANK(Z15, Z$2:Z$15)</f>
-        <v>11</v>
-      </c>
-      <c r="BH15" s="16">
-        <f>RANK(AB15, AB$2:AB$15)</f>
-        <v>13</v>
-      </c>
-      <c r="BI15" s="16">
-        <f>RANK(AD15, AD$2:AD$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BJ15" s="16">
-        <f>RANK(AF15, AF$2:AF$15)</f>
-        <v>5</v>
-      </c>
-      <c r="BK15" s="16">
-        <f>RANK(AH15, AH$2:AH$15)</f>
-        <v>11</v>
-      </c>
-      <c r="BL15" s="16">
-        <f>RANK(AJ15, AJ$2:AJ$15)</f>
-        <v>1</v>
-      </c>
-      <c r="BM15" s="16">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="BN15" s="16">
-        <f t="shared" si="10"/>
-        <v>5</v>
-      </c>
       <c r="BO15" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
     </row>
@@ -14590,7 +14630,7 @@
         <v>0.94961251609032893</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:113">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -14665,15 +14705,15 @@
         <v>7.4066383916503747E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:113">
       <c r="F18" s="6"/>
       <c r="AP18" s="10"/>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:113">
       <c r="F19" s="6"/>
       <c r="AP19" s="10"/>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:113">
       <c r="G20" s="21"/>
       <c r="M20" s="21"/>
       <c r="S20" s="21"/>
@@ -14682,7 +14722,7 @@
       <c r="AK20" s="21"/>
       <c r="AQ20" s="21"/>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:113">
       <c r="G21" s="21"/>
       <c r="M21" s="21"/>
       <c r="S21" s="21"/>
@@ -14691,7 +14731,7 @@
       <c r="AK21" s="21"/>
       <c r="AQ21" s="21"/>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:113">
       <c r="G22" s="21"/>
       <c r="M22" s="21"/>
       <c r="S22" s="21"/>
@@ -14700,7 +14740,7 @@
       <c r="AK22" s="21"/>
       <c r="AQ22" s="21"/>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:113">
       <c r="G23" s="21"/>
       <c r="M23" s="21"/>
       <c r="S23" s="21"/>
@@ -14709,7 +14749,7 @@
       <c r="AK23" s="21"/>
       <c r="AQ23" s="21"/>
     </row>
-    <row r="24" spans="1:43">
+    <row r="24" spans="1:113">
       <c r="G24" s="21"/>
       <c r="M24" s="21"/>
       <c r="S24" s="21"/>
@@ -14718,7 +14758,7 @@
       <c r="AK24" s="21"/>
       <c r="AQ24" s="21"/>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:113">
       <c r="G25" s="21"/>
       <c r="M25" s="21"/>
       <c r="S25" s="21"/>
@@ -14727,7 +14767,7 @@
       <c r="AK25" s="21"/>
       <c r="AQ25" s="21"/>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:113">
       <c r="G26" s="21"/>
       <c r="M26" s="21"/>
       <c r="S26" s="21"/>
@@ -14735,8 +14775,101 @@
       <c r="AE26" s="21"/>
       <c r="AK26" s="21"/>
       <c r="AQ26" s="21"/>
-    </row>
-    <row r="27" spans="1:43">
+      <c r="BQ26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR26" s="1"/>
+      <c r="BS26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BV26" s="20"/>
+      <c r="BW26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="BX26" s="2"/>
+      <c r="BY26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BZ26" s="1"/>
+      <c r="CA26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="CB26" s="1"/>
+      <c r="CC26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="CD26" s="1"/>
+      <c r="CE26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="CF26" s="1"/>
+      <c r="CG26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="CH26" s="1"/>
+      <c r="CI26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="CJ26" s="1"/>
+      <c r="CK26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="CL26" s="1"/>
+      <c r="CM26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="CN26" s="1"/>
+      <c r="CO26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="CP26" s="1"/>
+      <c r="CQ26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="CR26" s="1"/>
+      <c r="CS26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="CT26" s="1"/>
+      <c r="CU26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="CV26" s="1"/>
+      <c r="CW26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="CX26" s="1"/>
+      <c r="CY26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="CZ26" s="1"/>
+      <c r="DA26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="DB26" s="1"/>
+      <c r="DC26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="DD26" s="3"/>
+      <c r="DE26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="DF26" s="20"/>
+      <c r="DG26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="DH26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="DI26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:113" ht="17" customHeight="1">
       <c r="G27" s="21"/>
       <c r="M27" s="21"/>
       <c r="S27" s="21"/>
@@ -14744,8 +14877,153 @@
       <c r="AE27" s="21"/>
       <c r="AK27" s="21"/>
       <c r="AQ27" s="21"/>
-    </row>
-    <row r="28" spans="1:43">
+      <c r="BP27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="22">
+        <v>0.87035094117195222</v>
+      </c>
+      <c r="BR27" s="17">
+        <v>2</v>
+      </c>
+      <c r="BS27" s="22">
+        <v>0.87035094117195233</v>
+      </c>
+      <c r="BT27" s="17">
+        <v>4</v>
+      </c>
+      <c r="BU27" s="26">
+        <f>BQ27/BS27</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="BV27" s="17">
+        <v>5</v>
+      </c>
+      <c r="BW27" s="22">
+        <v>0.95760738620362373</v>
+      </c>
+      <c r="BX27" s="17">
+        <v>5</v>
+      </c>
+      <c r="BY27" s="22">
+        <v>0.95760738620362384</v>
+      </c>
+      <c r="BZ27" s="17">
+        <v>6</v>
+      </c>
+      <c r="CA27" s="27">
+        <f>BW27/BY27</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="CB27" s="17">
+        <v>8</v>
+      </c>
+      <c r="CC27" s="22">
+        <v>0.72341053899577346</v>
+      </c>
+      <c r="CD27" s="17">
+        <v>13</v>
+      </c>
+      <c r="CE27" s="22">
+        <v>0.72341053899577357</v>
+      </c>
+      <c r="CF27" s="17">
+        <v>11</v>
+      </c>
+      <c r="CG27" s="27">
+        <f>CC27/CE27</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="CH27" s="17">
+        <v>8</v>
+      </c>
+      <c r="CI27" s="22">
+        <v>1</v>
+      </c>
+      <c r="CJ27" s="17">
+        <v>1</v>
+      </c>
+      <c r="CK27" s="22">
+        <v>1</v>
+      </c>
+      <c r="CL27" s="17">
+        <v>1</v>
+      </c>
+      <c r="CM27" s="27">
+        <f>CI27/CK27</f>
+        <v>1</v>
+      </c>
+      <c r="CN27" s="17">
+        <v>3</v>
+      </c>
+      <c r="CO27" s="22">
+        <v>0.95760765151016647</v>
+      </c>
+      <c r="CP27" s="17">
+        <v>6</v>
+      </c>
+      <c r="CQ27" s="22">
+        <v>0.95760765151016658</v>
+      </c>
+      <c r="CR27" s="17">
+        <v>7</v>
+      </c>
+      <c r="CS27" s="27">
+        <f>CO27/CQ27</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="CT27" s="17">
+        <v>8</v>
+      </c>
+      <c r="CU27" s="22">
+        <v>0.90888052095176086</v>
+      </c>
+      <c r="CV27" s="17">
+        <v>12</v>
+      </c>
+      <c r="CW27" s="22">
+        <v>0.90888052095176086</v>
+      </c>
+      <c r="CX27" s="17">
+        <v>13</v>
+      </c>
+      <c r="CY27" s="27">
+        <f>CU27/CW27</f>
+        <v>1</v>
+      </c>
+      <c r="CZ27" s="17">
+        <v>7</v>
+      </c>
+      <c r="DA27" s="22">
+        <v>1</v>
+      </c>
+      <c r="DB27" s="17">
+        <v>1</v>
+      </c>
+      <c r="DC27" s="22">
+        <v>1</v>
+      </c>
+      <c r="DD27" s="17">
+        <v>1</v>
+      </c>
+      <c r="DE27" s="28">
+        <f>DA27/DC27</f>
+        <v>1</v>
+      </c>
+      <c r="DF27" s="17">
+        <v>3</v>
+      </c>
+      <c r="DG27">
+        <v>0</v>
+      </c>
+      <c r="DH27">
+        <v>0</v>
+      </c>
+      <c r="DI27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:113" ht="17" customHeight="1">
       <c r="G28" s="21"/>
       <c r="M28" s="21"/>
       <c r="S28" s="21"/>
@@ -14753,8 +15031,153 @@
       <c r="AE28" s="21"/>
       <c r="AK28" s="21"/>
       <c r="AQ28" s="21"/>
-    </row>
-    <row r="29" spans="1:43">
+      <c r="BP28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BQ28" s="22">
+        <v>0.50366523878605018</v>
+      </c>
+      <c r="BR28" s="17">
+        <v>11</v>
+      </c>
+      <c r="BS28" s="22">
+        <v>0.50803271475201184</v>
+      </c>
+      <c r="BT28" s="17">
+        <v>11</v>
+      </c>
+      <c r="BU28" s="26">
+        <f t="shared" ref="BU28:BU40" si="29">BQ28/BS28</f>
+        <v>0.99140315999513229</v>
+      </c>
+      <c r="BV28" s="17">
+        <v>10</v>
+      </c>
+      <c r="BW28" s="22">
+        <v>0.63006811836963827</v>
+      </c>
+      <c r="BX28" s="17">
+        <v>14</v>
+      </c>
+      <c r="BY28" s="22">
+        <v>0.634829125679504</v>
+      </c>
+      <c r="BZ28" s="17">
+        <v>14</v>
+      </c>
+      <c r="CA28" s="27">
+        <f t="shared" ref="CA28:CA40" si="30">BW28/BY28</f>
+        <v>0.99250033258198467</v>
+      </c>
+      <c r="CB28" s="17">
+        <v>11</v>
+      </c>
+      <c r="CC28" s="22">
+        <v>0.83139262936773095</v>
+      </c>
+      <c r="CD28" s="17">
+        <v>9</v>
+      </c>
+      <c r="CE28" s="22">
+        <v>0.97831715874087943</v>
+      </c>
+      <c r="CF28" s="17">
+        <v>8</v>
+      </c>
+      <c r="CG28" s="27">
+        <f t="shared" ref="CG28:CG40" si="31">CC28/CE28</f>
+        <v>0.84981912249986058</v>
+      </c>
+      <c r="CH28" s="17">
+        <v>12</v>
+      </c>
+      <c r="CI28" s="22">
+        <v>0.79939016440536947</v>
+      </c>
+      <c r="CJ28" s="17">
+        <v>4</v>
+      </c>
+      <c r="CK28" s="22">
+        <v>0.78731886680693852</v>
+      </c>
+      <c r="CL28" s="17">
+        <v>6</v>
+      </c>
+      <c r="CM28" s="27">
+        <f t="shared" ref="CM28:CM40" si="32">CI28/CK28</f>
+        <v>1.0153321584269757</v>
+      </c>
+      <c r="CN28" s="17">
+        <v>1</v>
+      </c>
+      <c r="CO28" s="22">
+        <v>0.63006739657976785</v>
+      </c>
+      <c r="CP28" s="17">
+        <v>14</v>
+      </c>
+      <c r="CQ28" s="22">
+        <v>0.6459291732816983</v>
+      </c>
+      <c r="CR28" s="17">
+        <v>14</v>
+      </c>
+      <c r="CS28" s="27">
+        <f t="shared" ref="CS28:CS40" si="33">CO28/CQ28</f>
+        <v>0.97544347374597851</v>
+      </c>
+      <c r="CT28" s="17">
+        <v>11</v>
+      </c>
+      <c r="CU28" s="22">
+        <v>0.99999118280791532</v>
+      </c>
+      <c r="CV28" s="17">
+        <v>8</v>
+      </c>
+      <c r="CW28" s="22">
+        <v>0.99897845301151267</v>
+      </c>
+      <c r="CX28" s="17">
+        <v>6</v>
+      </c>
+      <c r="CY28" s="27">
+        <f t="shared" ref="CY28:CY40" si="34">CU28/CW28</f>
+        <v>1.0010137654053997</v>
+      </c>
+      <c r="CZ28" s="17">
+        <v>5</v>
+      </c>
+      <c r="DA28" s="22">
+        <v>0.79939016440536947</v>
+      </c>
+      <c r="DB28" s="17">
+        <v>4</v>
+      </c>
+      <c r="DC28" s="22">
+        <v>0.78731886680693852</v>
+      </c>
+      <c r="DD28" s="17">
+        <v>6</v>
+      </c>
+      <c r="DE28" s="28">
+        <f t="shared" ref="DE28:DE40" si="35">DA28/DC28</f>
+        <v>1.0153321584269757</v>
+      </c>
+      <c r="DF28" s="17">
+        <v>1</v>
+      </c>
+      <c r="DG28">
+        <v>0</v>
+      </c>
+      <c r="DH28">
+        <v>4.2046127328218857E-2</v>
+      </c>
+      <c r="DI28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:113" ht="17" customHeight="1">
       <c r="G29" s="21"/>
       <c r="M29" s="21"/>
       <c r="S29" s="21"/>
@@ -14762,8 +15185,153 @@
       <c r="AE29" s="21"/>
       <c r="AK29" s="21"/>
       <c r="AQ29" s="21"/>
-    </row>
-    <row r="30" spans="1:43">
+      <c r="BP29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ29" s="22">
+        <v>0.96863086007115118</v>
+      </c>
+      <c r="BR29" s="17">
+        <v>1</v>
+      </c>
+      <c r="BS29" s="22">
+        <v>1</v>
+      </c>
+      <c r="BT29" s="17">
+        <v>1</v>
+      </c>
+      <c r="BU29" s="26">
+        <f t="shared" si="29"/>
+        <v>0.96863086007115118</v>
+      </c>
+      <c r="BV29" s="17">
+        <v>11</v>
+      </c>
+      <c r="BW29" s="22">
+        <v>0.96864211769433151</v>
+      </c>
+      <c r="BX29" s="17">
+        <v>3</v>
+      </c>
+      <c r="BY29" s="22">
+        <v>1</v>
+      </c>
+      <c r="BZ29" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA29" s="27">
+        <f t="shared" si="30"/>
+        <v>0.96864211769433151</v>
+      </c>
+      <c r="CB29" s="17">
+        <v>13</v>
+      </c>
+      <c r="CC29" s="22">
+        <v>1.608605976524305</v>
+      </c>
+      <c r="CD29" s="17">
+        <v>1</v>
+      </c>
+      <c r="CE29" s="22">
+        <v>1</v>
+      </c>
+      <c r="CF29" s="17">
+        <v>4</v>
+      </c>
+      <c r="CG29" s="27">
+        <f t="shared" si="31"/>
+        <v>1.608605976524305</v>
+      </c>
+      <c r="CH29" s="17">
+        <v>3</v>
+      </c>
+      <c r="CI29" s="22">
+        <v>1</v>
+      </c>
+      <c r="CJ29" s="17">
+        <v>1</v>
+      </c>
+      <c r="CK29" s="22">
+        <v>1</v>
+      </c>
+      <c r="CL29" s="17">
+        <v>1</v>
+      </c>
+      <c r="CM29" s="27">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="CN29" s="17">
+        <v>3</v>
+      </c>
+      <c r="CO29" s="22">
+        <v>0.96864336665401096</v>
+      </c>
+      <c r="CP29" s="17">
+        <v>4</v>
+      </c>
+      <c r="CQ29" s="22">
+        <v>1</v>
+      </c>
+      <c r="CR29" s="17">
+        <v>1</v>
+      </c>
+      <c r="CS29" s="27">
+        <f t="shared" si="33"/>
+        <v>0.96864336665401096</v>
+      </c>
+      <c r="CT29" s="17">
+        <v>13</v>
+      </c>
+      <c r="CU29" s="22">
+        <v>0.99998708855778062</v>
+      </c>
+      <c r="CV29" s="17">
+        <v>9</v>
+      </c>
+      <c r="CW29" s="22">
+        <v>1</v>
+      </c>
+      <c r="CX29" s="17">
+        <v>1</v>
+      </c>
+      <c r="CY29" s="27">
+        <f t="shared" si="34"/>
+        <v>0.99998708855778062</v>
+      </c>
+      <c r="CZ29" s="17">
+        <v>11</v>
+      </c>
+      <c r="DA29" s="22">
+        <v>1</v>
+      </c>
+      <c r="DB29" s="17">
+        <v>1</v>
+      </c>
+      <c r="DC29" s="22">
+        <v>1</v>
+      </c>
+      <c r="DD29" s="17">
+        <v>1</v>
+      </c>
+      <c r="DE29" s="28">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="DF29" s="17">
+        <v>3</v>
+      </c>
+      <c r="DG29">
+        <v>0</v>
+      </c>
+      <c r="DH29">
+        <v>0.13971088275710389</v>
+      </c>
+      <c r="DI29">
+        <v>0.1108945783334405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:113" ht="17" customHeight="1">
       <c r="G30" s="21"/>
       <c r="M30" s="21"/>
       <c r="S30" s="21"/>
@@ -14771,8 +15339,153 @@
       <c r="AE30" s="21"/>
       <c r="AK30" s="21"/>
       <c r="AQ30" s="21"/>
-    </row>
-    <row r="31" spans="1:43">
+      <c r="BP30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ30" s="22">
+        <v>0.36467222103623492</v>
+      </c>
+      <c r="BR30" s="17">
+        <v>13</v>
+      </c>
+      <c r="BS30" s="22">
+        <v>0.36720168536927761</v>
+      </c>
+      <c r="BT30" s="17">
+        <v>13</v>
+      </c>
+      <c r="BU30" s="26">
+        <f t="shared" si="29"/>
+        <v>0.99311151219118476</v>
+      </c>
+      <c r="BV30" s="17">
+        <v>9</v>
+      </c>
+      <c r="BW30" s="22">
+        <v>0.79332463346747151</v>
+      </c>
+      <c r="BX30" s="17">
+        <v>9</v>
+      </c>
+      <c r="BY30" s="22">
+        <v>0.79860896794814673</v>
+      </c>
+      <c r="BZ30" s="17">
+        <v>9</v>
+      </c>
+      <c r="CA30" s="27">
+        <f t="shared" si="30"/>
+        <v>0.99338307645824186</v>
+      </c>
+      <c r="CB30" s="17">
+        <v>10</v>
+      </c>
+      <c r="CC30" s="22">
+        <v>0.84547889200582838</v>
+      </c>
+      <c r="CD30" s="17">
+        <v>8</v>
+      </c>
+      <c r="CE30" s="22">
+        <v>-0.12228472447165251</v>
+      </c>
+      <c r="CF30" s="17">
+        <v>14</v>
+      </c>
+      <c r="CG30" s="27">
+        <f t="shared" si="31"/>
+        <v>-6.9140188658790613</v>
+      </c>
+      <c r="CH30" s="17">
+        <v>14</v>
+      </c>
+      <c r="CI30" s="22">
+        <v>0.45967771387314438</v>
+      </c>
+      <c r="CJ30" s="17">
+        <v>13</v>
+      </c>
+      <c r="CK30" s="22">
+        <v>0.47697737959389491</v>
+      </c>
+      <c r="CL30" s="17">
+        <v>13</v>
+      </c>
+      <c r="CM30" s="27">
+        <f t="shared" si="32"/>
+        <v>0.96373063700530259</v>
+      </c>
+      <c r="CN30" s="17">
+        <v>9</v>
+      </c>
+      <c r="CO30" s="22">
+        <v>0.79332411183944807</v>
+      </c>
+      <c r="CP30" s="17">
+        <v>9</v>
+      </c>
+      <c r="CQ30" s="22">
+        <v>0.80489325158220248</v>
+      </c>
+      <c r="CR30" s="17">
+        <v>9</v>
+      </c>
+      <c r="CS30" s="27">
+        <f t="shared" si="33"/>
+        <v>0.98562649181116546</v>
+      </c>
+      <c r="CT30" s="17">
+        <v>10</v>
+      </c>
+      <c r="CU30" s="22">
+        <v>0.99999672843009868</v>
+      </c>
+      <c r="CV30" s="17">
+        <v>6</v>
+      </c>
+      <c r="CW30" s="22">
+        <v>0.95646392932546997</v>
+      </c>
+      <c r="CX30" s="17">
+        <v>10</v>
+      </c>
+      <c r="CY30" s="27">
+        <f t="shared" si="34"/>
+        <v>1.0455143134726779</v>
+      </c>
+      <c r="CZ30" s="17">
+        <v>2</v>
+      </c>
+      <c r="DA30" s="22">
+        <v>0.45967771387314438</v>
+      </c>
+      <c r="DB30" s="17">
+        <v>13</v>
+      </c>
+      <c r="DC30" s="22">
+        <v>0.47697737959389491</v>
+      </c>
+      <c r="DD30" s="17">
+        <v>13</v>
+      </c>
+      <c r="DE30" s="28">
+        <f t="shared" si="35"/>
+        <v>0.96373063700530259</v>
+      </c>
+      <c r="DF30" s="17">
+        <v>9</v>
+      </c>
+      <c r="DG30">
+        <v>0</v>
+      </c>
+      <c r="DH30">
+        <v>3.3368525356108389E-2</v>
+      </c>
+      <c r="DI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:113" ht="17" customHeight="1">
       <c r="G31" s="21"/>
       <c r="M31" s="21"/>
       <c r="S31" s="21"/>
@@ -14780,8 +15493,153 @@
       <c r="AE31" s="21"/>
       <c r="AK31" s="21"/>
       <c r="AQ31" s="21"/>
-    </row>
-    <row r="32" spans="1:43">
+      <c r="BP31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ31" s="22">
+        <v>0.54116542283628744</v>
+      </c>
+      <c r="BR31" s="17">
+        <v>7</v>
+      </c>
+      <c r="BS31" s="22">
+        <v>0.54116542283628744</v>
+      </c>
+      <c r="BT31" s="17">
+        <v>7</v>
+      </c>
+      <c r="BU31" s="26">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="BV31" s="17">
+        <v>2</v>
+      </c>
+      <c r="BW31" s="22">
+        <v>1</v>
+      </c>
+      <c r="BX31" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY31" s="22">
+        <v>1</v>
+      </c>
+      <c r="BZ31" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA31" s="27">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="CB31" s="17">
+        <v>4</v>
+      </c>
+      <c r="CC31" s="22">
+        <v>0.82119301851186666</v>
+      </c>
+      <c r="CD31" s="17">
+        <v>10</v>
+      </c>
+      <c r="CE31" s="22">
+        <v>0.82119301851186666</v>
+      </c>
+      <c r="CF31" s="17">
+        <v>9</v>
+      </c>
+      <c r="CG31" s="27">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="CH31" s="17">
+        <v>5</v>
+      </c>
+      <c r="CI31" s="22">
+        <v>0.61013994875408417</v>
+      </c>
+      <c r="CJ31" s="17">
+        <v>11</v>
+      </c>
+      <c r="CK31" s="22">
+        <v>0.61013994875408417</v>
+      </c>
+      <c r="CL31" s="17">
+        <v>11</v>
+      </c>
+      <c r="CM31" s="27">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="CN31" s="17">
+        <v>3</v>
+      </c>
+      <c r="CO31" s="22">
+        <v>1</v>
+      </c>
+      <c r="CP31" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ31" s="22">
+        <v>1</v>
+      </c>
+      <c r="CR31" s="17">
+        <v>1</v>
+      </c>
+      <c r="CS31" s="27">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CT31" s="17">
+        <v>4</v>
+      </c>
+      <c r="CU31" s="22">
+        <v>0.88695294242141665</v>
+      </c>
+      <c r="CV31" s="17">
+        <v>14</v>
+      </c>
+      <c r="CW31" s="22">
+        <v>0.88695294242141665</v>
+      </c>
+      <c r="CX31" s="17">
+        <v>14</v>
+      </c>
+      <c r="CY31" s="27">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="CZ31" s="17">
+        <v>7</v>
+      </c>
+      <c r="DA31" s="22">
+        <v>0.61013994875408417</v>
+      </c>
+      <c r="DB31" s="17">
+        <v>11</v>
+      </c>
+      <c r="DC31" s="22">
+        <v>0.61013994875408417</v>
+      </c>
+      <c r="DD31" s="17">
+        <v>11</v>
+      </c>
+      <c r="DE31" s="28">
+        <f>DA31/DC31</f>
+        <v>1</v>
+      </c>
+      <c r="DF31" s="17">
+        <v>3</v>
+      </c>
+      <c r="DG31">
+        <v>0</v>
+      </c>
+      <c r="DH31">
+        <v>0</v>
+      </c>
+      <c r="DI31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:113" ht="17" customHeight="1">
       <c r="G32" s="21"/>
       <c r="M32" s="21"/>
       <c r="S32" s="21"/>
@@ -14789,8 +15647,153 @@
       <c r="AE32" s="21"/>
       <c r="AK32" s="21"/>
       <c r="AQ32" s="21"/>
-    </row>
-    <row r="33" spans="6:43">
+      <c r="BP32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ32" s="22">
+        <v>0.36225670343979688</v>
+      </c>
+      <c r="BR32" s="17">
+        <v>14</v>
+      </c>
+      <c r="BS32" s="22">
+        <v>0.36361898891566641</v>
+      </c>
+      <c r="BT32" s="17">
+        <v>14</v>
+      </c>
+      <c r="BU32" s="26">
+        <f t="shared" si="29"/>
+        <v>0.99625353593350019</v>
+      </c>
+      <c r="BV32" s="17">
+        <v>7</v>
+      </c>
+      <c r="BW32" s="22">
+        <v>0.81951137736065593</v>
+      </c>
+      <c r="BX32" s="17">
+        <v>8</v>
+      </c>
+      <c r="BY32" s="22">
+        <v>0.817905929833041</v>
+      </c>
+      <c r="BZ32" s="17">
+        <v>8</v>
+      </c>
+      <c r="CA32" s="27">
+        <f t="shared" si="30"/>
+        <v>1.0019628755203458</v>
+      </c>
+      <c r="CB32" s="17">
+        <v>3</v>
+      </c>
+      <c r="CC32" s="22">
+        <v>1</v>
+      </c>
+      <c r="CD32" s="17">
+        <v>2</v>
+      </c>
+      <c r="CE32" s="22">
+        <v>1.0007942821983591</v>
+      </c>
+      <c r="CF32" s="17">
+        <v>1</v>
+      </c>
+      <c r="CG32" s="27">
+        <f t="shared" si="31"/>
+        <v>0.9992063481851492</v>
+      </c>
+      <c r="CH32" s="17">
+        <v>9</v>
+      </c>
+      <c r="CI32" s="22">
+        <v>0.4420385844954075</v>
+      </c>
+      <c r="CJ32" s="17">
+        <v>14</v>
+      </c>
+      <c r="CK32" s="22">
+        <v>0.45014037304146198</v>
+      </c>
+      <c r="CL32" s="17">
+        <v>14</v>
+      </c>
+      <c r="CM32" s="27">
+        <f t="shared" si="32"/>
+        <v>0.98200163986333167</v>
+      </c>
+      <c r="CN32" s="17">
+        <v>8</v>
+      </c>
+      <c r="CO32" s="22">
+        <v>0.81951376225068107</v>
+      </c>
+      <c r="CP32" s="17">
+        <v>8</v>
+      </c>
+      <c r="CQ32" s="22">
+        <v>0.81790833593667911</v>
+      </c>
+      <c r="CR32" s="17">
+        <v>8</v>
+      </c>
+      <c r="CS32" s="27">
+        <f t="shared" si="33"/>
+        <v>1.0019628438095858</v>
+      </c>
+      <c r="CT32" s="17">
+        <v>3</v>
+      </c>
+      <c r="CU32" s="22">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="CV32" s="17">
+        <v>3</v>
+      </c>
+      <c r="CW32" s="22">
+        <v>0.98762927328653161</v>
+      </c>
+      <c r="CX32" s="17">
+        <v>7</v>
+      </c>
+      <c r="CY32" s="27">
+        <f t="shared" si="34"/>
+        <v>1.0125256784585801</v>
+      </c>
+      <c r="CZ32" s="17">
+        <v>4</v>
+      </c>
+      <c r="DA32" s="22">
+        <v>0.4420385844954075</v>
+      </c>
+      <c r="DB32" s="17">
+        <v>14</v>
+      </c>
+      <c r="DC32" s="22">
+        <v>0.45014037304146198</v>
+      </c>
+      <c r="DD32" s="17">
+        <v>14</v>
+      </c>
+      <c r="DE32" s="28">
+        <f t="shared" ref="DE32:DE42" si="36">DA32/DC32</f>
+        <v>0.98200163986333167</v>
+      </c>
+      <c r="DF32" s="17">
+        <v>8</v>
+      </c>
+      <c r="DG32">
+        <v>1.011009512074562E-2</v>
+      </c>
+      <c r="DH32">
+        <v>1.012095036415638E-2</v>
+      </c>
+      <c r="DI32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="6:113" ht="17" customHeight="1">
       <c r="G33" s="21"/>
       <c r="M33" s="21"/>
       <c r="S33" s="21"/>
@@ -14798,106 +15801,1412 @@
       <c r="AE33" s="21"/>
       <c r="AK33" s="21"/>
       <c r="AQ33" s="21"/>
-    </row>
-    <row r="34" spans="6:43">
+      <c r="BP33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BQ33" s="22">
+        <v>0.52754148317599858</v>
+      </c>
+      <c r="BR33" s="17">
+        <v>8</v>
+      </c>
+      <c r="BS33" s="22">
+        <v>0.52952559257160492</v>
+      </c>
+      <c r="BT33" s="17">
+        <v>8</v>
+      </c>
+      <c r="BU33" s="26">
+        <f t="shared" si="29"/>
+        <v>0.99625304343465126</v>
+      </c>
+      <c r="BV33" s="17">
+        <v>8</v>
+      </c>
+      <c r="BW33" s="22">
+        <v>0.73739992564433998</v>
+      </c>
+      <c r="BX33" s="17">
+        <v>12</v>
+      </c>
+      <c r="BY33" s="22">
+        <v>0.72122218306311192</v>
+      </c>
+      <c r="BZ33" s="17">
+        <v>12</v>
+      </c>
+      <c r="CA33" s="27">
+        <f t="shared" si="30"/>
+        <v>1.0224310108051855</v>
+      </c>
+      <c r="CB33" s="17">
+        <v>2</v>
+      </c>
+      <c r="CC33" s="22">
+        <v>0.90769574516686025</v>
+      </c>
+      <c r="CD33" s="17">
+        <v>6</v>
+      </c>
+      <c r="CE33" s="22">
+        <v>1.0002358496856529</v>
+      </c>
+      <c r="CF33" s="17">
+        <v>2</v>
+      </c>
+      <c r="CG33" s="27">
+        <f t="shared" si="31"/>
+        <v>0.90748171588943194</v>
+      </c>
+      <c r="CH33" s="17">
+        <v>10</v>
+      </c>
+      <c r="CI33" s="22">
+        <v>0.71540840664684668</v>
+      </c>
+      <c r="CJ33" s="17">
+        <v>7</v>
+      </c>
+      <c r="CK33" s="22">
+        <v>0.75928057270582383</v>
+      </c>
+      <c r="CL33" s="17">
+        <v>8</v>
+      </c>
+      <c r="CM33" s="27">
+        <f t="shared" si="32"/>
+        <v>0.9422187691400673</v>
+      </c>
+      <c r="CN33" s="17">
+        <v>10</v>
+      </c>
+      <c r="CO33" s="22">
+        <v>0.73740164147585174</v>
+      </c>
+      <c r="CP33" s="17">
+        <v>12</v>
+      </c>
+      <c r="CQ33" s="22">
+        <v>0.72122400460015545</v>
+      </c>
+      <c r="CR33" s="17">
+        <v>12</v>
+      </c>
+      <c r="CS33" s="27">
+        <f t="shared" si="33"/>
+        <v>1.0224308075889197</v>
+      </c>
+      <c r="CT33" s="17">
+        <v>2</v>
+      </c>
+      <c r="CU33" s="22">
+        <v>0.99999649277908986</v>
+      </c>
+      <c r="CV33" s="17">
+        <v>7</v>
+      </c>
+      <c r="CW33" s="22">
+        <v>0.96697332541396519</v>
+      </c>
+      <c r="CX33" s="17">
+        <v>8</v>
+      </c>
+      <c r="CY33" s="27">
+        <f t="shared" si="34"/>
+        <v>1.0341510634235824</v>
+      </c>
+      <c r="CZ33" s="17">
+        <v>3</v>
+      </c>
+      <c r="DA33" s="22">
+        <v>0.71540840664684668</v>
+      </c>
+      <c r="DB33" s="17">
+        <v>7</v>
+      </c>
+      <c r="DC33" s="22">
+        <v>0.75928057270582383</v>
+      </c>
+      <c r="DD33" s="17">
+        <v>8</v>
+      </c>
+      <c r="DE33" s="28">
+        <f t="shared" si="36"/>
+        <v>0.9422187691400673</v>
+      </c>
+      <c r="DF33" s="17">
+        <v>10</v>
+      </c>
+      <c r="DG33">
+        <v>2.3814014648734678E-2</v>
+      </c>
+      <c r="DH33">
+        <v>2.3824869892145439E-2</v>
+      </c>
+      <c r="DI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="6:113" ht="17" customHeight="1">
       <c r="F34" s="6"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="AP34" s="10"/>
-    </row>
-    <row r="35" spans="6:43">
+      <c r="BP34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BQ34" s="22">
+        <v>0.59542125405592039</v>
+      </c>
+      <c r="BR34" s="17">
+        <v>6</v>
+      </c>
+      <c r="BS34" s="22">
+        <v>0.59542125405592039</v>
+      </c>
+      <c r="BT34" s="17">
+        <v>6</v>
+      </c>
+      <c r="BU34" s="26">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="BV34" s="17">
+        <v>2</v>
+      </c>
+      <c r="BW34" s="22">
+        <v>0.77539032681299325</v>
+      </c>
+      <c r="BX34" s="17">
+        <v>10</v>
+      </c>
+      <c r="BY34" s="22">
+        <v>0.77539032681299325</v>
+      </c>
+      <c r="BZ34" s="17">
+        <v>10</v>
+      </c>
+      <c r="CA34" s="27">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="CB34" s="17">
+        <v>4</v>
+      </c>
+      <c r="CC34" s="22">
+        <v>1</v>
+      </c>
+      <c r="CD34" s="17">
+        <v>2</v>
+      </c>
+      <c r="CE34" s="22">
+        <v>1</v>
+      </c>
+      <c r="CF34" s="17">
+        <v>4</v>
+      </c>
+      <c r="CG34" s="27">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="CH34" s="17">
+        <v>5</v>
+      </c>
+      <c r="CI34" s="22">
+        <v>0.76789873882386284</v>
+      </c>
+      <c r="CJ34" s="17">
+        <v>6</v>
+      </c>
+      <c r="CK34" s="22">
+        <v>0.76789873882386284</v>
+      </c>
+      <c r="CL34" s="17">
+        <v>7</v>
+      </c>
+      <c r="CM34" s="27">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="CN34" s="17">
+        <v>3</v>
+      </c>
+      <c r="CO34" s="22">
+        <v>0.77539032681299325</v>
+      </c>
+      <c r="CP34" s="17">
+        <v>10</v>
+      </c>
+      <c r="CQ34" s="22">
+        <v>0.77539032681299325</v>
+      </c>
+      <c r="CR34" s="17">
+        <v>10</v>
+      </c>
+      <c r="CS34" s="27">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CT34" s="17">
+        <v>4</v>
+      </c>
+      <c r="CU34" s="22">
+        <v>1</v>
+      </c>
+      <c r="CV34" s="17">
+        <v>1</v>
+      </c>
+      <c r="CW34" s="22">
+        <v>1</v>
+      </c>
+      <c r="CX34" s="17">
+        <v>1</v>
+      </c>
+      <c r="CY34" s="27">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="CZ34" s="17">
+        <v>7</v>
+      </c>
+      <c r="DA34" s="22">
+        <v>0.76789873882386284</v>
+      </c>
+      <c r="DB34" s="17">
+        <v>6</v>
+      </c>
+      <c r="DC34" s="22">
+        <v>0.76789873882386284</v>
+      </c>
+      <c r="DD34" s="17">
+        <v>7</v>
+      </c>
+      <c r="DE34" s="28">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="DF34" s="17">
+        <v>3</v>
+      </c>
+      <c r="DG34">
+        <v>0</v>
+      </c>
+      <c r="DH34">
+        <v>0</v>
+      </c>
+      <c r="DI34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:113" ht="17" customHeight="1">
       <c r="F35" s="6"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="AP35" s="10"/>
-    </row>
-    <row r="36" spans="6:43">
+      <c r="BP35" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BQ35" s="22">
+        <v>0.46103466202064253</v>
+      </c>
+      <c r="BR35" s="17">
+        <v>12</v>
+      </c>
+      <c r="BS35" s="22">
+        <v>0.46103354393509588</v>
+      </c>
+      <c r="BT35" s="17">
+        <v>12</v>
+      </c>
+      <c r="BU35" s="26">
+        <f t="shared" si="29"/>
+        <v>1.0000024251717936</v>
+      </c>
+      <c r="BV35" s="17">
+        <v>1</v>
+      </c>
+      <c r="BW35" s="22">
+        <v>0.72638954427166169</v>
+      </c>
+      <c r="BX35" s="17">
+        <v>13</v>
+      </c>
+      <c r="BY35" s="22">
+        <v>0.72639196298018716</v>
+      </c>
+      <c r="BZ35" s="17">
+        <v>11</v>
+      </c>
+      <c r="CA35" s="27">
+        <f t="shared" si="30"/>
+        <v>0.99999667024327255</v>
+      </c>
+      <c r="CB35" s="17">
+        <v>9</v>
+      </c>
+      <c r="CC35" s="22">
+        <v>1</v>
+      </c>
+      <c r="CD35" s="17">
+        <v>2</v>
+      </c>
+      <c r="CE35" s="22">
+        <v>0.56595939460240352</v>
+      </c>
+      <c r="CF35" s="17">
+        <v>12</v>
+      </c>
+      <c r="CG35" s="27">
+        <f t="shared" si="31"/>
+        <v>1.7669112122478641</v>
+      </c>
+      <c r="CH35" s="17">
+        <v>2</v>
+      </c>
+      <c r="CI35" s="22">
+        <v>0.63469341712911631</v>
+      </c>
+      <c r="CJ35" s="17">
+        <v>10</v>
+      </c>
+      <c r="CK35" s="22">
+        <v>0.63469249321919097</v>
+      </c>
+      <c r="CL35" s="17">
+        <v>10</v>
+      </c>
+      <c r="CM35" s="27">
+        <f t="shared" si="32"/>
+        <v>1.0000014556811925</v>
+      </c>
+      <c r="CN35" s="17">
+        <v>2</v>
+      </c>
+      <c r="CO35" s="22">
+        <v>0.72638954427166169</v>
+      </c>
+      <c r="CP35" s="17">
+        <v>13</v>
+      </c>
+      <c r="CQ35" s="22">
+        <v>0.72639480043370297</v>
+      </c>
+      <c r="CR35" s="17">
+        <v>11</v>
+      </c>
+      <c r="CS35" s="27">
+        <f t="shared" si="33"/>
+        <v>0.99999276404231119</v>
+      </c>
+      <c r="CT35" s="17">
+        <v>9</v>
+      </c>
+      <c r="CU35" s="22">
+        <v>1</v>
+      </c>
+      <c r="CV35" s="17">
+        <v>1</v>
+      </c>
+      <c r="CW35" s="22">
+        <v>0.99999179456107679</v>
+      </c>
+      <c r="CX35" s="17">
+        <v>5</v>
+      </c>
+      <c r="CY35" s="27">
+        <f t="shared" si="34"/>
+        <v>1.0000082055062529</v>
+      </c>
+      <c r="CZ35" s="17">
+        <v>6</v>
+      </c>
+      <c r="DA35" s="22">
+        <v>0.63469341712911631</v>
+      </c>
+      <c r="DB35" s="17">
+        <v>10</v>
+      </c>
+      <c r="DC35" s="22">
+        <v>0.63469249321919097</v>
+      </c>
+      <c r="DD35" s="17">
+        <v>10</v>
+      </c>
+      <c r="DE35" s="28">
+        <f t="shared" si="36"/>
+        <v>1.0000014556811925</v>
+      </c>
+      <c r="DF35" s="17">
+        <v>2</v>
+      </c>
+      <c r="DG35">
+        <v>0</v>
+      </c>
+      <c r="DH35">
+        <v>0</v>
+      </c>
+      <c r="DI35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="6:113" ht="17" customHeight="1">
       <c r="F36" s="6"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="AP36" s="10"/>
-    </row>
-    <row r="37" spans="6:43">
+      <c r="BP36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BQ36" s="22">
+        <v>0.70776713301091609</v>
+      </c>
+      <c r="BR36" s="17">
+        <v>3</v>
+      </c>
+      <c r="BS36" s="22">
+        <v>0.89912679324397604</v>
+      </c>
+      <c r="BT36" s="17">
+        <v>3</v>
+      </c>
+      <c r="BU36" s="26">
+        <f t="shared" si="29"/>
+        <v>0.78717166291680629</v>
+      </c>
+      <c r="BV36" s="17">
+        <v>13</v>
+      </c>
+      <c r="BW36" s="22">
+        <v>0.9438857936185312</v>
+      </c>
+      <c r="BX36" s="17">
+        <v>6</v>
+      </c>
+      <c r="BY36" s="22">
+        <v>0.97291053432691132</v>
+      </c>
+      <c r="BZ36" s="17">
+        <v>5</v>
+      </c>
+      <c r="CA36" s="27">
+        <f t="shared" si="30"/>
+        <v>0.97016710202602507</v>
+      </c>
+      <c r="CB36" s="17">
+        <v>12</v>
+      </c>
+      <c r="CC36" s="22">
+        <v>0.56591866880016994</v>
+      </c>
+      <c r="CD36" s="17">
+        <v>14</v>
+      </c>
+      <c r="CE36" s="22">
+        <v>0.25221107580637903</v>
+      </c>
+      <c r="CF36" s="17">
+        <v>13</v>
+      </c>
+      <c r="CG36" s="27">
+        <f t="shared" si="31"/>
+        <v>2.2438295661314349</v>
+      </c>
+      <c r="CH36" s="17">
+        <v>1</v>
+      </c>
+      <c r="CI36" s="22">
+        <v>0.83769474231752128</v>
+      </c>
+      <c r="CJ36" s="17">
+        <v>3</v>
+      </c>
+      <c r="CK36" s="22">
+        <v>1</v>
+      </c>
+      <c r="CL36" s="17">
+        <v>1</v>
+      </c>
+      <c r="CM36" s="27">
+        <f t="shared" si="32"/>
+        <v>0.83769474231752128</v>
+      </c>
+      <c r="CN36" s="17">
+        <v>13</v>
+      </c>
+      <c r="CO36" s="22">
+        <v>0.94360823902033708</v>
+      </c>
+      <c r="CP36" s="17">
+        <v>7</v>
+      </c>
+      <c r="CQ36" s="22">
+        <v>0.97568265563814094</v>
+      </c>
+      <c r="CR36" s="17">
+        <v>5</v>
+      </c>
+      <c r="CS36" s="27">
+        <f t="shared" si="33"/>
+        <v>0.96712617936533296</v>
+      </c>
+      <c r="CT36" s="17">
+        <v>14</v>
+      </c>
+      <c r="CU36" s="22">
+        <v>0.89539131447612597</v>
+      </c>
+      <c r="CV36" s="17">
+        <v>13</v>
+      </c>
+      <c r="CW36" s="22">
+        <v>0.92153610402749819</v>
+      </c>
+      <c r="CX36" s="17">
+        <v>12</v>
+      </c>
+      <c r="CY36" s="27">
+        <f t="shared" si="34"/>
+        <v>0.97162912072884766</v>
+      </c>
+      <c r="CZ36" s="17">
+        <v>13</v>
+      </c>
+      <c r="DA36" s="22">
+        <v>0.83769474231752128</v>
+      </c>
+      <c r="DB36" s="17">
+        <v>3</v>
+      </c>
+      <c r="DC36" s="22">
+        <v>1</v>
+      </c>
+      <c r="DD36" s="17">
+        <v>1</v>
+      </c>
+      <c r="DE36" s="28">
+        <f t="shared" si="36"/>
+        <v>0.83769474231752128</v>
+      </c>
+      <c r="DF36" s="17">
+        <v>13</v>
+      </c>
+      <c r="DG36">
+        <v>0</v>
+      </c>
+      <c r="DH36">
+        <v>5.8887937258103137E-2</v>
+      </c>
+      <c r="DI36">
+        <v>0.1963696507143772</v>
+      </c>
+    </row>
+    <row r="37" spans="6:113" ht="17" customHeight="1">
       <c r="F37" s="6"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="AP37" s="10"/>
-    </row>
-    <row r="38" spans="6:43">
+      <c r="BP37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ37" s="22">
+        <v>0.50860532455154805</v>
+      </c>
+      <c r="BR37" s="17">
+        <v>10</v>
+      </c>
+      <c r="BS37" s="22">
+        <v>0.50860532455154805</v>
+      </c>
+      <c r="BT37" s="17">
+        <v>10</v>
+      </c>
+      <c r="BU37" s="26">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="BV37" s="17">
+        <v>2</v>
+      </c>
+      <c r="BW37" s="22">
+        <v>0.93497774371465048</v>
+      </c>
+      <c r="BX37" s="17">
+        <v>7</v>
+      </c>
+      <c r="BY37" s="22">
+        <v>0.93497774371465048</v>
+      </c>
+      <c r="BZ37" s="17">
+        <v>7</v>
+      </c>
+      <c r="CA37" s="27">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="CB37" s="17">
+        <v>4</v>
+      </c>
+      <c r="CC37" s="22">
+        <v>1</v>
+      </c>
+      <c r="CD37" s="17">
+        <v>2</v>
+      </c>
+      <c r="CE37" s="22">
+        <v>1</v>
+      </c>
+      <c r="CF37" s="17">
+        <v>4</v>
+      </c>
+      <c r="CG37" s="27">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="CH37" s="17">
+        <v>5</v>
+      </c>
+      <c r="CI37" s="22">
+        <v>0.52842272088948461</v>
+      </c>
+      <c r="CJ37" s="17">
+        <v>12</v>
+      </c>
+      <c r="CK37" s="22">
+        <v>0.52842272088948461</v>
+      </c>
+      <c r="CL37" s="17">
+        <v>12</v>
+      </c>
+      <c r="CM37" s="27">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="CN37" s="17">
+        <v>3</v>
+      </c>
+      <c r="CO37" s="22">
+        <v>0.96249707752047797</v>
+      </c>
+      <c r="CP37" s="17">
+        <v>5</v>
+      </c>
+      <c r="CQ37" s="22">
+        <v>0.96249707752047797</v>
+      </c>
+      <c r="CR37" s="17">
+        <v>6</v>
+      </c>
+      <c r="CS37" s="27">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CT37" s="17">
+        <v>4</v>
+      </c>
+      <c r="CU37" s="22">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="CV37" s="17">
+        <v>3</v>
+      </c>
+      <c r="CW37" s="22">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="CX37" s="17">
+        <v>4</v>
+      </c>
+      <c r="CY37" s="27">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="CZ37" s="17">
+        <v>7</v>
+      </c>
+      <c r="DA37" s="22">
+        <v>0.52842272088948461</v>
+      </c>
+      <c r="DB37" s="17">
+        <v>12</v>
+      </c>
+      <c r="DC37" s="22">
+        <v>0.52842272088948461</v>
+      </c>
+      <c r="DD37" s="17">
+        <v>12</v>
+      </c>
+      <c r="DE37" s="28">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="DF37" s="17">
+        <v>3</v>
+      </c>
+      <c r="DG37">
+        <v>0</v>
+      </c>
+      <c r="DH37">
+        <v>0</v>
+      </c>
+      <c r="DI37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:113" ht="17" customHeight="1">
       <c r="F38" s="6"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="AP38" s="10"/>
-    </row>
-    <row r="39" spans="6:43">
+      <c r="BP38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BQ38" s="22">
+        <v>0.70134472864826047</v>
+      </c>
+      <c r="BR38" s="17">
+        <v>4</v>
+      </c>
+      <c r="BS38" s="22">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="BT38" s="17">
+        <v>2</v>
+      </c>
+      <c r="BU38" s="26">
+        <f t="shared" si="29"/>
+        <v>0.70134472864826058</v>
+      </c>
+      <c r="BV38" s="17">
+        <v>14</v>
+      </c>
+      <c r="BW38" s="22">
+        <v>0.96211392549078067</v>
+      </c>
+      <c r="BX38" s="17">
+        <v>4</v>
+      </c>
+      <c r="BY38" s="22">
+        <v>1</v>
+      </c>
+      <c r="BZ38" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA38" s="27">
+        <f t="shared" si="30"/>
+        <v>0.96211392549078067</v>
+      </c>
+      <c r="CB38" s="17">
+        <v>14</v>
+      </c>
+      <c r="CC38" s="22">
+        <v>0.76311293872938457</v>
+      </c>
+      <c r="CD38" s="17">
+        <v>12</v>
+      </c>
+      <c r="CE38" s="22">
+        <v>1</v>
+      </c>
+      <c r="CF38" s="17">
+        <v>4</v>
+      </c>
+      <c r="CG38" s="27">
+        <f t="shared" si="31"/>
+        <v>0.76311293872938457</v>
+      </c>
+      <c r="CH38" s="17">
+        <v>13</v>
+      </c>
+      <c r="CI38" s="22">
+        <v>0.77764425535062043</v>
+      </c>
+      <c r="CJ38" s="17">
+        <v>5</v>
+      </c>
+      <c r="CK38" s="22">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="CL38" s="17">
+        <v>4</v>
+      </c>
+      <c r="CM38" s="27">
+        <f t="shared" si="32"/>
+        <v>0.77764425535062065</v>
+      </c>
+      <c r="CN38" s="17">
+        <v>14</v>
+      </c>
+      <c r="CO38" s="22">
+        <v>0.96970117785552334</v>
+      </c>
+      <c r="CP38" s="17">
+        <v>3</v>
+      </c>
+      <c r="CQ38" s="22">
+        <v>1</v>
+      </c>
+      <c r="CR38" s="17">
+        <v>1</v>
+      </c>
+      <c r="CS38" s="27">
+        <f t="shared" si="33"/>
+        <v>0.96970117785552334</v>
+      </c>
+      <c r="CT38" s="17">
+        <v>12</v>
+      </c>
+      <c r="CU38" s="22">
+        <v>0.9300635962306576</v>
+      </c>
+      <c r="CV38" s="17">
+        <v>11</v>
+      </c>
+      <c r="CW38" s="22">
+        <v>1</v>
+      </c>
+      <c r="CX38" s="17">
+        <v>1</v>
+      </c>
+      <c r="CY38" s="27">
+        <f t="shared" si="34"/>
+        <v>0.9300635962306576</v>
+      </c>
+      <c r="CZ38" s="17">
+        <v>14</v>
+      </c>
+      <c r="DA38" s="22">
+        <v>0.77764425535062043</v>
+      </c>
+      <c r="DB38" s="17">
+        <v>5</v>
+      </c>
+      <c r="DC38" s="22">
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="DD38" s="17">
+        <v>4</v>
+      </c>
+      <c r="DE38" s="28">
+        <f t="shared" si="36"/>
+        <v>0.77764425535062065</v>
+      </c>
+      <c r="DF38" s="17">
+        <v>14</v>
+      </c>
+      <c r="DG38">
+        <v>0</v>
+      </c>
+      <c r="DH38">
+        <v>0.2166294053230978</v>
+      </c>
+      <c r="DI38">
+        <v>1.177438257787127</v>
+      </c>
+    </row>
+    <row r="39" spans="6:113" ht="17" customHeight="1">
       <c r="F39" s="6"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="AP39" s="10"/>
-    </row>
-    <row r="40" spans="6:43">
+      <c r="BP39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BQ39" s="22">
+        <v>0.64062669308993214</v>
+      </c>
+      <c r="BR39" s="17">
+        <v>5</v>
+      </c>
+      <c r="BS39" s="22">
+        <v>0.72256083391415049</v>
+      </c>
+      <c r="BT39" s="17">
+        <v>5</v>
+      </c>
+      <c r="BU39" s="26">
+        <f t="shared" si="29"/>
+        <v>0.88660589257187283</v>
+      </c>
+      <c r="BV39" s="17">
+        <v>12</v>
+      </c>
+      <c r="BW39" s="22">
+        <v>1</v>
+      </c>
+      <c r="BX39" s="17">
+        <v>1</v>
+      </c>
+      <c r="BY39" s="22">
+        <v>1</v>
+      </c>
+      <c r="BZ39" s="17">
+        <v>1</v>
+      </c>
+      <c r="CA39" s="27">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="CB39" s="17">
+        <v>4</v>
+      </c>
+      <c r="CC39" s="22">
+        <v>0.7694817255995211</v>
+      </c>
+      <c r="CD39" s="17">
+        <v>11</v>
+      </c>
+      <c r="CE39" s="22">
+        <v>0.76947129787253254</v>
+      </c>
+      <c r="CF39" s="17">
+        <v>10</v>
+      </c>
+      <c r="CG39" s="27">
+        <f t="shared" si="31"/>
+        <v>1.0000135518076079</v>
+      </c>
+      <c r="CH39" s="17">
+        <v>4</v>
+      </c>
+      <c r="CI39" s="22">
+        <v>0.67924689289519469</v>
+      </c>
+      <c r="CJ39" s="17">
+        <v>9</v>
+      </c>
+      <c r="CK39" s="22">
+        <v>0.74847200619068199</v>
+      </c>
+      <c r="CL39" s="17">
+        <v>9</v>
+      </c>
+      <c r="CM39" s="27">
+        <f t="shared" si="32"/>
+        <v>0.90751141963504323</v>
+      </c>
+      <c r="CN39" s="17">
+        <v>11</v>
+      </c>
+      <c r="CO39" s="22">
+        <v>1</v>
+      </c>
+      <c r="CP39" s="17">
+        <v>1</v>
+      </c>
+      <c r="CQ39" s="22">
+        <v>1</v>
+      </c>
+      <c r="CR39" s="17">
+        <v>1</v>
+      </c>
+      <c r="CS39" s="27">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CT39" s="17">
+        <v>4</v>
+      </c>
+      <c r="CU39" s="22">
+        <v>0.94314261837746582</v>
+      </c>
+      <c r="CV39" s="17">
+        <v>10</v>
+      </c>
+      <c r="CW39" s="22">
+        <v>0.96538124063128883</v>
+      </c>
+      <c r="CX39" s="17">
+        <v>9</v>
+      </c>
+      <c r="CY39" s="27">
+        <f t="shared" si="34"/>
+        <v>0.97696389641953207</v>
+      </c>
+      <c r="CZ39" s="17">
+        <v>12</v>
+      </c>
+      <c r="DA39" s="22">
+        <v>0.67924689289519469</v>
+      </c>
+      <c r="DB39" s="17">
+        <v>9</v>
+      </c>
+      <c r="DC39" s="22">
+        <v>0.74847200619068199</v>
+      </c>
+      <c r="DD39" s="17">
+        <v>9</v>
+      </c>
+      <c r="DE39" s="28">
+        <f t="shared" si="36"/>
+        <v>0.90751141963504323</v>
+      </c>
+      <c r="DF39" s="17">
+        <v>11</v>
+      </c>
+      <c r="DG39">
+        <v>0</v>
+      </c>
+      <c r="DH39">
+        <v>0</v>
+      </c>
+      <c r="DI39">
+        <v>0.1947335281179329</v>
+      </c>
+    </row>
+    <row r="40" spans="6:113" ht="17" customHeight="1">
       <c r="F40" s="6"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="AP40" s="10"/>
-    </row>
-    <row r="41" spans="6:43">
+      <c r="BP40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="BQ40" s="22">
+        <v>0.5226205182399345</v>
+      </c>
+      <c r="BR40" s="17">
+        <v>9</v>
+      </c>
+      <c r="BS40" s="22">
+        <v>0.52458500498091254</v>
+      </c>
+      <c r="BT40" s="17">
+        <v>9</v>
+      </c>
+      <c r="BU40" s="26">
+        <f t="shared" si="29"/>
+        <v>0.99625516032230177</v>
+      </c>
+      <c r="BV40" s="17">
+        <v>6</v>
+      </c>
+      <c r="BW40" s="22">
+        <v>0.74288031254039477</v>
+      </c>
+      <c r="BX40" s="17">
+        <v>11</v>
+      </c>
+      <c r="BY40" s="22">
+        <v>0.69908331318107286</v>
+      </c>
+      <c r="BZ40" s="17">
+        <v>13</v>
+      </c>
+      <c r="CA40" s="27">
+        <f t="shared" si="30"/>
+        <v>1.062649184344038</v>
+      </c>
+      <c r="CB40" s="17">
+        <v>1</v>
+      </c>
+      <c r="CC40" s="22">
+        <v>0.85436944818583671</v>
+      </c>
+      <c r="CD40" s="17">
+        <v>7</v>
+      </c>
+      <c r="CE40" s="22">
+        <v>1.000196018297574</v>
+      </c>
+      <c r="CF40" s="17">
+        <v>3</v>
+      </c>
+      <c r="CG40" s="27">
+        <f t="shared" si="31"/>
+        <v>0.85420200896225562</v>
+      </c>
+      <c r="CH40" s="17">
+        <v>11</v>
+      </c>
+      <c r="CI40" s="22">
+        <v>0.70350627019455148</v>
+      </c>
+      <c r="CJ40" s="17">
+        <v>8</v>
+      </c>
+      <c r="CK40" s="22">
+        <v>0.8100803169229801</v>
+      </c>
+      <c r="CL40" s="17">
+        <v>5</v>
+      </c>
+      <c r="CM40" s="27">
+        <f t="shared" si="32"/>
+        <v>0.86844014784454837</v>
+      </c>
+      <c r="CN40" s="17">
+        <v>12</v>
+      </c>
+      <c r="CO40" s="22">
+        <v>0.74288106740265802</v>
+      </c>
+      <c r="CP40" s="17">
+        <v>11</v>
+      </c>
+      <c r="CQ40" s="22">
+        <v>0.69908419662431875</v>
+      </c>
+      <c r="CR40" s="17">
+        <v>13</v>
+      </c>
+      <c r="CS40" s="27">
+        <f t="shared" si="33"/>
+        <v>1.0626489212455696</v>
+      </c>
+      <c r="CT40" s="17">
+        <v>1</v>
+      </c>
+      <c r="CU40" s="22">
+        <v>0.99999814265835385</v>
+      </c>
+      <c r="CV40" s="17">
+        <v>5</v>
+      </c>
+      <c r="CW40" s="22">
+        <v>0.9263141702901283</v>
+      </c>
+      <c r="CX40" s="17">
+        <v>11</v>
+      </c>
+      <c r="CY40" s="27">
+        <f t="shared" si="34"/>
+        <v>1.0795453364868068</v>
+      </c>
+      <c r="CZ40" s="17">
+        <v>1</v>
+      </c>
+      <c r="DA40" s="22">
+        <v>0.70350627019455148</v>
+      </c>
+      <c r="DB40" s="17">
+        <v>8</v>
+      </c>
+      <c r="DC40" s="22">
+        <v>0.8100803169229801</v>
+      </c>
+      <c r="DD40" s="17">
+        <v>5</v>
+      </c>
+      <c r="DE40" s="28">
+        <f t="shared" si="36"/>
+        <v>0.86844014784454837</v>
+      </c>
+      <c r="DF40" s="17">
+        <v>12</v>
+      </c>
+      <c r="DG40">
+        <v>5.1502503988089122E-2</v>
+      </c>
+      <c r="DH40">
+        <v>5.1513359231499883E-2</v>
+      </c>
+      <c r="DI40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:113" ht="17" customHeight="1">
       <c r="F41" s="6"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="AP41" s="10"/>
-    </row>
-    <row r="42" spans="6:43">
+      <c r="BP41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="BQ41" s="22">
+        <v>0.59112165600961608</v>
+      </c>
+      <c r="BS41" s="22">
+        <v>0.6350877214498859</v>
+      </c>
+      <c r="BU41" s="26">
+        <f>AVERAGE(BU27:BU40)</f>
+        <v>0.95121657008976102</v>
+      </c>
+      <c r="BW41" s="22">
+        <v>0.85658508608493389</v>
+      </c>
+      <c r="BY41" s="22">
+        <v>0.85992339098166037</v>
+      </c>
+      <c r="CA41" s="26">
+        <f>AVERAGE(CA27:CA40)</f>
+        <v>0.99813187822601457</v>
+      </c>
+      <c r="CC41" s="22">
+        <v>0.90647568442051996</v>
+      </c>
+      <c r="CE41" s="22">
+        <v>0.7849645650171263</v>
+      </c>
+      <c r="CG41" s="26">
+        <f>AVERAGE(CG27:CG40)</f>
+        <v>0.57708311250701649</v>
+      </c>
+      <c r="CI41" s="22">
+        <v>0.71112584684108615</v>
+      </c>
+      <c r="CK41" s="22">
+        <v>0.75524452978202883</v>
+      </c>
+      <c r="CM41" s="26">
+        <f>AVERAGE(CM27:CM40)</f>
+        <v>0.94961251609032893</v>
+      </c>
+      <c r="CO41" s="22">
+        <v>0.85907324022811271</v>
+      </c>
+      <c r="CQ41" s="22">
+        <v>0.86332939099575268</v>
+      </c>
+      <c r="CS41" s="26">
+        <f>AVERAGE(CS27:CS40)</f>
+        <v>0.99668400186559969</v>
+      </c>
+      <c r="CU41" s="22">
+        <v>0.96888575912076191</v>
+      </c>
+      <c r="CW41" s="22">
+        <v>0.96565012528004623</v>
+      </c>
+      <c r="CY41" s="26">
+        <f>AVERAGE(CY27:CY40)</f>
+        <v>1.0036715760492942</v>
+      </c>
+      <c r="DA41" s="22">
+        <v>0.71112584684108615</v>
+      </c>
+      <c r="DC41" s="22">
+        <v>0.75524452978202883</v>
+      </c>
+      <c r="DE41" s="29">
+        <f>AVERAGE(DE27:DE40)</f>
+        <v>0.94961251609032893</v>
+      </c>
+    </row>
+    <row r="42" spans="6:113" ht="17" customHeight="1">
       <c r="F42" s="6"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="AP42" s="10"/>
-    </row>
-    <row r="43" spans="6:43">
+      <c r="BP42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BQ42" s="22">
+        <v>0.16227053534279701</v>
+      </c>
+      <c r="BS42" s="22">
+        <v>0.20666910282079151</v>
+      </c>
+      <c r="BU42" s="26">
+        <f>STDEV(BU27:BU40)</f>
+        <v>9.4127185914645875E-2</v>
+      </c>
+      <c r="BW42" s="22">
+        <v>0.114357551628679</v>
+      </c>
+      <c r="BY42" s="22">
+        <v>0.1245535037955889</v>
+      </c>
+      <c r="CA42" s="26">
+        <f>STDEV(CA27:CA40)</f>
+        <v>2.4481966746527958E-2</v>
+      </c>
+      <c r="CC42" s="22">
+        <v>0.22153013983347111</v>
+      </c>
+      <c r="CE42" s="22">
+        <v>0.31852024619028052</v>
+      </c>
+      <c r="CG42" s="26">
+        <f>STDEV(CG27:CG40)</f>
+        <v>2.1968828620071053</v>
+      </c>
+      <c r="CI42" s="22">
+        <v>0.16010454338260871</v>
+      </c>
+      <c r="CK42" s="22">
+        <v>0.18283624594272249</v>
+      </c>
+      <c r="CM42" s="26">
+        <f>STDEV(CM27:CM40)</f>
+        <v>7.4066383916503747E-2</v>
+      </c>
+      <c r="CO42" s="22">
+        <v>0.11626421390436879</v>
+      </c>
+      <c r="CQ42" s="22">
+        <v>0.1244874272386052</v>
+      </c>
+      <c r="CS42" s="26">
+        <f>STDEV(CS27:CS40)</f>
+        <v>2.4914477317875956E-2</v>
+      </c>
+      <c r="CU42" s="22">
+        <v>4.2107713202701048E-2</v>
+      </c>
+      <c r="CW42" s="22">
+        <v>3.6958061225988888E-2</v>
+      </c>
+      <c r="CY42" s="26">
+        <f>STDEV(CY27:CY40)</f>
+        <v>3.4819503638497014E-2</v>
+      </c>
+      <c r="DA42" s="22">
+        <v>0.16010454338260871</v>
+      </c>
+      <c r="DC42" s="22">
+        <v>0.18283624594272249</v>
+      </c>
+      <c r="DE42" s="29">
+        <f>STDEV(DE27:DE40)</f>
+        <v>7.4066383916503747E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="6:113">
       <c r="F43" s="6"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="AP43" s="10"/>
     </row>
-    <row r="44" spans="6:43">
+    <row r="44" spans="6:113">
       <c r="F44" s="6"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="AP44" s="10"/>
     </row>
-    <row r="45" spans="6:43">
+    <row r="45" spans="6:113">
       <c r="F45" s="6"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="AP45" s="10"/>
     </row>
-    <row r="46" spans="6:43">
+    <row r="46" spans="6:113">
       <c r="F46" s="6"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="AP46" s="10"/>
     </row>
-    <row r="47" spans="6:43">
+    <row r="47" spans="6:113">
       <c r="F47" s="6"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="AP47" s="10"/>
     </row>
-    <row r="48" spans="6:43">
+    <row r="48" spans="6:113">
       <c r="F48" s="6"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
